--- a/Comparativa Algoritmos.xlsx
+++ b/Comparativa Algoritmos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidadhuelva-my.sharepoint.com/personal/victormanuel_rodriguez607_alu_uhu_es/Documents/UHU/2020-2021/MBHB/Practicas/P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="854" documentId="8_{D1DDB6C2-67B3-4B87-8F25-D69E6E94A16C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E22B0680-ED89-44F5-A855-3F284AB0076E}"/>
+  <xr:revisionPtr revIDLastSave="920" documentId="8_{D1DDB6C2-67B3-4B87-8F25-D69E6E94A16C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BABEC330-74AD-412F-A117-EA060BB38A3F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="743" xr2:uid="{E36AA127-7C1A-44A1-B2F9-CDA2DDAE02E7}"/>
+    <workbookView xWindow="23070" yWindow="3000" windowWidth="28800" windowHeight="15555" tabRatio="743" activeTab="4" xr2:uid="{E36AA127-7C1A-44A1-B2F9-CDA2DDAE02E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparativa" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="654">
   <si>
     <t>st70</t>
   </si>
@@ -451,33 +451,18 @@
     <t>Limite iteraciones: 10400</t>
   </si>
   <si>
-    <t xml:space="preserve"> #EV: 10400 </t>
-  </si>
-  <si>
     <t>Limite iteraciones: 22400</t>
   </si>
   <si>
-    <t xml:space="preserve"> #EV: 22400 </t>
-  </si>
-  <si>
     <t>Limite iteraciones: 52320</t>
   </si>
   <si>
-    <t xml:space="preserve"> #EV: 52320 </t>
-  </si>
-  <si>
     <t>Limite iteraciones: 86720</t>
   </si>
   <si>
-    <t xml:space="preserve"> #EV: 86720 </t>
-  </si>
-  <si>
     <t>Limite iteraciones: 139840</t>
   </si>
   <si>
-    <t xml:space="preserve"> #EV: 139840 </t>
-  </si>
-  <si>
     <t>Tiempo de ejecución: 93.639997</t>
   </si>
   <si>
@@ -571,15 +556,6 @@
     <t xml:space="preserve"> Desv: 0.000000</t>
   </si>
   <si>
-    <t xml:space="preserve">10400.000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22400.000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">52320.000000 </t>
-  </si>
-  <si>
     <t>Tiempo de ejecución: 1.581002</t>
   </si>
   <si>
@@ -1273,531 +1249,15 @@
     <t>Mejor solución de coste:  7469611</t>
   </si>
   <si>
-    <t xml:space="preserve"> Semilla: 60564</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 4172274</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 8709592</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 8674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 7927296</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 3604392</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 4625181</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 8620343</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 1024116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 610738</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución: 2.827999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 9937 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 11002 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 9562 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 10998 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 10077 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 10098 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 11488 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 11419 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 11033 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 10604 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10621.800000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 667.050856</t>
-  </si>
-  <si>
     <t>Mejor solución de coste:  9562</t>
   </si>
   <si>
-    <t>Tiempo de ejecución: 5.103499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 6322 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 6105 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Coste: 6418 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coste: 6394 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 6671 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 6457 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 6555 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 6580 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 6782 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6438.900000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 222.211336</t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  6105</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución: 12.449500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 346628 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 321223 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 336598 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 316380 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 343343 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 313882 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 262763 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 300437 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 283542 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 353024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">317782.000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 29080.023552</t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  262763</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución: 21.525500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 1254683 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 1306200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 1206424 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 1312050 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 1255445 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 1256615 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 1338345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 1249573 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 1315818 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 1368740 </t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  1206424</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución: 36.374998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 2315263 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 2280860 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 2400820 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 2263512 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 2294621 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 2316322 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 2240709 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 2228718 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 2355339 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coste: 2369259 </t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  2228718</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución: 2.039003</t>
-  </si>
-  <si>
-    <t>Coste: 1078</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 7602169</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 2700555</t>
-  </si>
-  <si>
-    <t>Coste: 984</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 8686987</t>
-  </si>
-  <si>
-    <t>Coste: 1007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 2427850</t>
-  </si>
-  <si>
-    <t>Coste: 906</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 6508507</t>
-  </si>
-  <si>
-    <t>Coste: 1055</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 1858058</t>
-  </si>
-  <si>
-    <t>Coste: 1088</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 3116514</t>
-  </si>
-  <si>
-    <t>Coste: 975</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 6137338</t>
-  </si>
-  <si>
-    <t>Coste: 1054</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 4568783</t>
-  </si>
-  <si>
-    <t>Coste: 1068</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semilla: 9467243</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 59.309077</t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  906</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución: 8.617002</t>
-  </si>
-  <si>
-    <t>Coste: 10341</t>
-  </si>
-  <si>
-    <t>Coste: 9979</t>
-  </si>
-  <si>
-    <t>Coste: 10644</t>
-  </si>
-  <si>
-    <t>Coste: 10818</t>
-  </si>
-  <si>
-    <t>Coste: 10401</t>
-  </si>
-  <si>
-    <t>Coste: 10907</t>
-  </si>
-  <si>
-    <t>Coste: 10127</t>
-  </si>
-  <si>
-    <t>Coste: 11153</t>
-  </si>
-  <si>
-    <t>Coste: 11341</t>
-  </si>
-  <si>
-    <t>Coste: 10886</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 442.317897</t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  9979</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución: 21.536000</t>
-  </si>
-  <si>
-    <t>Coste: 3679</t>
-  </si>
-  <si>
-    <t>Coste: 4286</t>
-  </si>
-  <si>
-    <t>Coste: 3051</t>
-  </si>
-  <si>
-    <t>Coste: 4189</t>
-  </si>
-  <si>
-    <t>Coste: 3627</t>
-  </si>
-  <si>
-    <t>Coste: 3090</t>
-  </si>
-  <si>
-    <t>Coste: 3343</t>
-  </si>
-  <si>
-    <t>Coste: 3857</t>
-  </si>
-  <si>
-    <t>Coste: 3718</t>
-  </si>
-  <si>
-    <t>Coste: 4487</t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  3051</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución: 114.465501</t>
-  </si>
-  <si>
-    <t>Coste: 105065</t>
-  </si>
-  <si>
-    <t>Coste: 95205</t>
-  </si>
-  <si>
-    <t>Coste: 294665</t>
-  </si>
-  <si>
-    <t>Coste: 104426</t>
-  </si>
-  <si>
-    <t>Coste: 95035</t>
-  </si>
-  <si>
-    <t>Coste: 90535</t>
-  </si>
-  <si>
-    <t>Coste: 102185</t>
-  </si>
-  <si>
-    <t>Coste: 89070</t>
-  </si>
-  <si>
-    <t>Coste: 98347</t>
-  </si>
-  <si>
-    <t>Coste: 111258</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 62252.907055</t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  89070</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución: 457.309000</t>
-  </si>
-  <si>
-    <t>Coste: 1308794</t>
-  </si>
-  <si>
-    <t>Coste: 1231690</t>
-  </si>
-  <si>
-    <t>Coste: 1384118</t>
-  </si>
-  <si>
-    <t>Coste: 1123463</t>
-  </si>
-  <si>
-    <t>Coste: 1349964</t>
-  </si>
-  <si>
-    <t>Coste: 1310292</t>
-  </si>
-  <si>
-    <t>Coste: 1399255</t>
-  </si>
-  <si>
-    <t>Coste: 1375614</t>
-  </si>
-  <si>
-    <t>Coste: 1303589</t>
-  </si>
-  <si>
-    <t>Coste: 1367150</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 83870.726668</t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  1123463</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución: 1551.313980</t>
-  </si>
-  <si>
-    <t>Coste: 2155894</t>
-  </si>
-  <si>
-    <t>Coste: 2009693</t>
-  </si>
-  <si>
-    <t>Coste: 2148421</t>
-  </si>
-  <si>
-    <t>Coste: 2322030</t>
-  </si>
-  <si>
-    <t>Coste: 2124652</t>
-  </si>
-  <si>
-    <t>Coste: 2109985</t>
-  </si>
-  <si>
-    <t>Coste: 2276024</t>
-  </si>
-  <si>
-    <t>Coste: 2095610</t>
-  </si>
-  <si>
-    <t>Coste: 2309676</t>
-  </si>
-  <si>
-    <t>Coste: 2141920</t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  2009693</t>
-  </si>
-  <si>
     <t>Limite iteraciones: 5600</t>
   </si>
   <si>
-    <t>Tiempo de ejecución: 1.844501</t>
-  </si>
-  <si>
-    <t>1)      Coste: 998       #EV: 5600       Semilla: 3321726</t>
-  </si>
-  <si>
-    <t>2)      Coste: 1009      #EV: 5600       Semilla: 5522762</t>
-  </si>
-  <si>
-    <t>3)      Coste: 1090      #EV: 5600       Semilla: 9235856</t>
-  </si>
-  <si>
-    <t>4)      Coste: 1024      #EV: 5600       Semilla: 7498743</t>
-  </si>
-  <si>
-    <t>5)      Coste: 1177      #EV: 5600       Semilla: 8317048</t>
-  </si>
-  <si>
-    <t>6)      Coste: 1095      #EV: 5600       Semilla: 2044754</t>
-  </si>
-  <si>
-    <t>7)      Coste: 1151      #EV: 5600       Semilla: 2678273</t>
-  </si>
-  <si>
-    <t>8)      Coste: 1035      #EV: 5600       Semilla: 3758093</t>
-  </si>
-  <si>
-    <t>9)      Coste: 981       #EV: 5600       Semilla: 9969938</t>
-  </si>
-  <si>
-    <t>10)     Coste: 1043      #EV: 5600       Semilla: 4904922</t>
-  </si>
-  <si>
-    <t>Coste Media:    1060.300000      Desv: 65.819703</t>
-  </si>
-  <si>
-    <t>#Ev Media:      5600.000000      Desv: 0.000000</t>
-  </si>
-  <si>
-    <t>Mejor solución de coste:  981</t>
-  </si>
-  <si>
     <t>Med</t>
   </si>
   <si>
@@ -1909,28 +1369,640 @@
     <t>Med6</t>
   </si>
   <si>
-    <t>2306542,3</t>
-  </si>
-  <si>
-    <t>139840</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 56192,56</t>
-  </si>
-  <si>
-    <t>86720</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 49438,23</t>
-  </si>
-  <si>
-    <t>1286389,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 101216,73</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desv: 487,93</t>
+    <t>Tiempo de ejecución: 1.961500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 950 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 112001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 6855880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1126 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 9635826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1054 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 1328515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 5494183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1094 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 9816694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 910 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 5027992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 955 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 3628315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 976 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 1355206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1121 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 2439335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 916 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 9974473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000.200000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 89.768591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112001.000000 </t>
+  </si>
+  <si>
+    <t>Mejor solución de coste:  900</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 3.236504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 10560 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 208001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 11910 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 11424 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 9981 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 11193 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 11160 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 11559 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 10737 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 10357 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 10434 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10931.500000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 612.029275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208001.000000 </t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 5.482499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 6048 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 448001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 6314 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 6781 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 6315 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 6218 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 5521 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 5856 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 5236 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 5974 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6068.100000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 449.753871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">448001.000000 </t>
+  </si>
+  <si>
+    <t>Mejor solución de coste:  5236</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 13.197999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 318852 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 1046401 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 342624 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 320283 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 307500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 374388 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 322763 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 355828 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 349229 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 367920 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 389706 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">344909.300000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 27332.688363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1046401.000000 </t>
+  </si>
+  <si>
+    <t>Mejor solución de coste:  307500</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 23.293002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1300005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 1734401 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1398311 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1322923 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1233144 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1292924 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1306309 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1286527 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1237837 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1277652 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1287425 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1294305.700000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 46102.769464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1734401.000000 </t>
+  </si>
+  <si>
+    <t>Mejor solución de coste:  1233144</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 40.314501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2215078 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 2796801 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2398102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2356964 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2245650 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2308416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2260814 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2279721 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2209846 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2203989 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2272878 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2275145.800000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 64080.092178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2796801.000000 </t>
+  </si>
+  <si>
+    <t>Mejor solución de coste:  2203989</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 2.448498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EV: 112004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EV: 112005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EV: 112003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 38.448956</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 0.737865</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 421173</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 2028326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 6711843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 4185848</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 9284840</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 2526298</t>
+  </si>
+  <si>
+    <t>Coste: 980</t>
+  </si>
+  <si>
+    <t>Coste: 992</t>
+  </si>
+  <si>
+    <t>Coste: 1022</t>
+  </si>
+  <si>
+    <t>Coste: 1023</t>
+  </si>
+  <si>
+    <t>Coste: 1065</t>
+  </si>
+  <si>
+    <t>Coste: 989</t>
+  </si>
+  <si>
+    <t>Coste: 1013</t>
+  </si>
+  <si>
+    <t>Coste: 1076</t>
+  </si>
+  <si>
+    <t>Coste: 976</t>
+  </si>
+  <si>
+    <t>Coste: 1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 7529288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 2540047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 7150037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semilla: 5645229</t>
+  </si>
+  <si>
+    <t>Limite iteraciones: 5200</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 5.035000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 10250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 208004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 11195 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 11310 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 10306 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 208003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 9992 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 208005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 11285 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 10330 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 10816 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 10856 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 10890 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 474.207175</t>
+  </si>
+  <si>
+    <t>Limite iteraciones: 11200</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 11.413000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 7122 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 448004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2996 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2879 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 3245 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2868 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 448003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 3474 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 448005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 3034 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 3126 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 3141 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 3466 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 1277.950395</t>
+  </si>
+  <si>
+    <t>Limite iteraciones: 26160</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 63.425996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 98462 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 1046404 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 329114 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 1046403 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 99219 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 100353 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 328567 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 103497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 348415 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 102587 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 1046405 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 339662 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 1046402 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 100851 </t>
+  </si>
+  <si>
+    <t>Limite iteraciones: 43360</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 161.339502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1493573 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 1734405 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1469902 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 1734404 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1395645 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 1734403 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1416843 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1367140 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1469118 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1404381 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1503934 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1566976 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 1470293 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 59935.932712</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 0.666667</t>
+  </si>
+  <si>
+    <t>Limite iteraciones: 69920</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 485.863999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2570327 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 2796804 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2409871 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 2796802 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2696201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2303177 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2641385 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2604359 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #EV: 2796805 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2660937 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2436246 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2613595 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste: 2338296 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 142467.095542</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desv: 0.816497</t>
   </si>
 </sst>
 </file>
@@ -4120,22 +4192,22 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1060.3</c:v>
+                  <c:v>1000.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10621.8</c:v>
+                  <c:v>10931.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6438.9</c:v>
+                  <c:v>6068.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>317782</c:v>
+                  <c:v>344909.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1286389.3</c:v>
+                  <c:v>1294305.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2306542.2999999998</c:v>
+                  <c:v>2275145.7999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4203,22 +4275,22 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1029.3</c:v>
+                  <c:v>1020.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10659.7</c:v>
+                  <c:v>10723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3732.7</c:v>
+                  <c:v>3535.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118579.1</c:v>
+                  <c:v>195072.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1315392.8999999999</c:v>
+                  <c:v>1455780.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2169390.5</c:v>
+                  <c:v>2527439.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4964,22 +5036,22 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>65.819703230365093</c:v>
+                  <c:v>89.768591389193588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>667.05085596560366</c:v>
+                  <c:v>612.02927489894898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222.21133584445633</c:v>
+                  <c:v>449.75387096104515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29080.023551877977</c:v>
+                  <c:v>27332.688362512425</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49438.237055160273</c:v>
+                  <c:v>46102.76946381131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56192.555806006108</c:v>
+                  <c:v>64080.092177766965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5047,22 +5119,22 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>59.309077439011531</c:v>
+                  <c:v>38.448956061539853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>442.31789724385135</c:v>
+                  <c:v>474.20717460245623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>487.9305619996893</c:v>
+                  <c:v>1277.9503946206644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62252.907054744566</c:v>
+                  <c:v>121800.633046202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83870.726668354197</c:v>
+                  <c:v>59935.932711984678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101216.73451037849</c:v>
+                  <c:v>142467.09554154758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5849,22 +5921,22 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5600</c:v>
+                  <c:v>112001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10400</c:v>
+                  <c:v>208001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22400</c:v>
+                  <c:v>448001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52320</c:v>
+                  <c:v>1046401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86720</c:v>
+                  <c:v>1734401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139840</c:v>
+                  <c:v>2796801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5932,22 +6004,22 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2800</c:v>
+                  <c:v>112004.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10400</c:v>
+                  <c:v>208004.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22400</c:v>
+                  <c:v>448003.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52320</c:v>
+                  <c:v>1046403.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86720</c:v>
+                  <c:v>1734404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139840</c:v>
+                  <c:v>2796804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8383,8 +8455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615697B-4E27-4964-848A-C264CC4B4B6A}">
   <dimension ref="A2:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8392,7 +8464,7 @@
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="7" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
@@ -8432,37 +8504,37 @@
     <row r="3" spans="1:25" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:25" ht="16.5" thickBot="1">
       <c r="B4" s="85" t="s">
-        <v>589</v>
+        <v>409</v>
       </c>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="85"/>
       <c r="F4" s="85" t="s">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="G4" s="85"/>
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85" t="s">
-        <v>598</v>
+        <v>418</v>
       </c>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
       <c r="M4" s="85"/>
       <c r="N4" s="85" t="s">
-        <v>599</v>
+        <v>419</v>
       </c>
       <c r="O4" s="85"/>
       <c r="P4" s="85"/>
       <c r="Q4" s="85"/>
       <c r="R4" s="85" t="s">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="S4" s="85"/>
       <c r="T4" s="85"/>
       <c r="U4" s="85"/>
       <c r="V4" s="85" t="s">
-        <v>601</v>
+        <v>421</v>
       </c>
       <c r="W4" s="85"/>
       <c r="X4" s="85"/>
@@ -8470,84 +8542,84 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1">
       <c r="A5" s="63" t="s">
-        <v>590</v>
+        <v>410</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>585</v>
+        <v>405</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>586</v>
+        <v>406</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>587</v>
+        <v>407</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>588</v>
+        <v>408</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>602</v>
+        <v>422</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>608</v>
+        <v>428</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>606</v>
+        <v>426</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>607</v>
+        <v>427</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>609</v>
+        <v>429</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>603</v>
+        <v>423</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>618</v>
+        <v>438</v>
       </c>
       <c r="M5" s="64" t="s">
-        <v>619</v>
+        <v>439</v>
       </c>
       <c r="N5" s="64" t="s">
-        <v>613</v>
+        <v>433</v>
       </c>
       <c r="O5" s="64" t="s">
-        <v>610</v>
+        <v>430</v>
       </c>
       <c r="P5" s="64" t="s">
-        <v>604</v>
+        <v>424</v>
       </c>
       <c r="Q5" s="64" t="s">
-        <v>620</v>
+        <v>440</v>
       </c>
       <c r="R5" s="64" t="s">
-        <v>616</v>
+        <v>436</v>
       </c>
       <c r="S5" s="64" t="s">
-        <v>614</v>
+        <v>434</v>
       </c>
       <c r="T5" s="64" t="s">
-        <v>611</v>
+        <v>431</v>
       </c>
       <c r="U5" s="64" t="s">
-        <v>605</v>
+        <v>425</v>
       </c>
       <c r="V5" s="64" t="s">
-        <v>621</v>
+        <v>441</v>
       </c>
       <c r="W5" s="64" t="s">
-        <v>617</v>
+        <v>437</v>
       </c>
       <c r="X5" s="64" t="s">
-        <v>615</v>
+        <v>435</v>
       </c>
       <c r="Y5" s="67" t="s">
-        <v>612</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="55" t="s">
-        <v>591</v>
+        <v>411</v>
       </c>
       <c r="B6" s="68">
         <f>(Greedy!$B$4)</f>
@@ -8558,7 +8630,7 @@
         <v>830</v>
       </c>
       <c r="D6" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="70">
         <v>1</v>
@@ -8572,7 +8644,7 @@
         <v>7579</v>
       </c>
       <c r="H6" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="60">
         <v>1</v>
@@ -8600,7 +8672,7 @@
         <v>43457</v>
       </c>
       <c r="P6" s="76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="77">
         <v>1</v>
@@ -8628,7 +8700,7 @@
         <v>408101</v>
       </c>
       <c r="X6" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="59">
         <v>1</v>
@@ -8636,7 +8708,7 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1">
       <c r="A7" s="56" t="s">
-        <v>592</v>
+        <v>412</v>
       </c>
       <c r="B7" s="58">
         <f>(Aleatoria!$B$15)</f>
@@ -8737,7 +8809,7 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1">
       <c r="A8" s="56" t="s">
-        <v>593</v>
+        <v>413</v>
       </c>
       <c r="B8" s="68">
         <f>('BA Mejor'!$B$15)</f>
@@ -8838,7 +8910,7 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1">
       <c r="A9" s="56" t="s">
-        <v>594</v>
+        <v>414</v>
       </c>
       <c r="B9" s="58">
         <f>('BA Primer Mejor'!$B$15)</f>
@@ -8939,204 +9011,204 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1">
       <c r="A10" s="56" t="s">
-        <v>595</v>
+        <v>415</v>
       </c>
       <c r="B10" s="68">
         <f>(ES!$B$15)</f>
-        <v>1060.3</v>
+        <v>1000.2</v>
       </c>
       <c r="C10" s="68">
         <f>(ES!$B$14)</f>
-        <v>981</v>
+        <v>900</v>
       </c>
       <c r="D10" s="68">
         <f>(ES!$B$16)</f>
-        <v>65.819703230365093</v>
+        <v>89.768591389193588</v>
       </c>
       <c r="E10" s="68">
-        <f>(ES!$C$15)</f>
-        <v>5600</v>
+        <f>(ES!$C$15)*20</f>
+        <v>2240020</v>
       </c>
       <c r="F10" s="61">
         <f>(ES!$D$15)</f>
-        <v>10621.8</v>
+        <v>10931.5</v>
       </c>
       <c r="G10" s="61">
         <f>(ES!$D$14)</f>
-        <v>9562</v>
+        <v>9981</v>
       </c>
       <c r="H10" s="61">
         <f>(ES!$D$16)</f>
-        <v>667.05085596560366</v>
+        <v>612.02927489894898</v>
       </c>
       <c r="I10" s="62">
         <f>(ES!$E$15)</f>
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="J10" s="71">
         <f>(ES!$F$15)</f>
-        <v>6438.9</v>
+        <v>6068.1</v>
       </c>
       <c r="K10" s="71">
         <f>(ES!$F$14)</f>
-        <v>6105</v>
+        <v>5236</v>
       </c>
       <c r="L10" s="71">
         <f>(ES!$F$16)</f>
-        <v>222.21133584445633</v>
+        <v>449.75387096104515</v>
       </c>
       <c r="M10" s="74">
         <f>(ES!$G$15)</f>
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="N10" s="75">
         <f>(ES!$H$15)</f>
-        <v>317782</v>
+        <v>344909.3</v>
       </c>
       <c r="O10" s="75">
         <f>(ES!$H$14)</f>
-        <v>262763</v>
+        <v>307500</v>
       </c>
       <c r="P10" s="75">
         <f>(ES!$H$16)</f>
-        <v>29080.023551877977</v>
+        <v>27332.688362512425</v>
       </c>
       <c r="Q10" s="78">
         <f>(ES!$I$15)</f>
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="R10" s="79">
         <f>(ES!$J$15)</f>
-        <v>1286389.3</v>
+        <v>1294305.7</v>
       </c>
       <c r="S10" s="79">
         <f>(ES!$J$14)</f>
-        <v>1206424</v>
+        <v>1233144</v>
       </c>
       <c r="T10" s="79">
         <f>(ES!$J$16)</f>
-        <v>49438.237055160273</v>
+        <v>46102.76946381131</v>
       </c>
       <c r="U10" s="82">
         <f>(ES!$K$15)</f>
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="V10" s="61">
         <f>(ES!$L$15)</f>
-        <v>2306542.2999999998</v>
+        <v>2275145.7999999998</v>
       </c>
       <c r="W10" s="61">
         <f>(ES!$L$14)</f>
-        <v>2228718</v>
+        <v>2203989</v>
       </c>
       <c r="X10" s="61">
         <f>(ES!$L$16)</f>
-        <v>56192.555806006108</v>
+        <v>64080.092177766965</v>
       </c>
       <c r="Y10" s="58">
         <f>(ES!$M$15)</f>
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" thickBot="1">
       <c r="A11" s="57" t="s">
-        <v>596</v>
+        <v>416</v>
       </c>
       <c r="B11" s="58">
         <f>(BT!$B$15)</f>
-        <v>1029.3</v>
+        <v>1020.9</v>
       </c>
       <c r="C11" s="58">
         <f>(BT!$B$14)</f>
-        <v>906</v>
+        <v>976</v>
       </c>
       <c r="D11" s="58">
         <f>(BT!$B$16)</f>
-        <v>59.309077439011531</v>
+        <v>38.448956061539853</v>
       </c>
       <c r="E11" s="58">
         <f>(BT!$C$15)</f>
-        <v>2800</v>
+        <v>112004.1</v>
       </c>
       <c r="F11" s="61">
         <f>(BT!$D$15)</f>
-        <v>10659.7</v>
+        <v>10723</v>
       </c>
       <c r="G11" s="61">
         <f>(BT!$D$14)</f>
-        <v>9979</v>
+        <v>9992</v>
       </c>
       <c r="H11" s="61">
         <f>(BT!$D$16)</f>
-        <v>442.31789724385135</v>
+        <v>474.20717460245623</v>
       </c>
       <c r="I11" s="62">
         <f>(BT!$E$15)</f>
-        <v>10400</v>
+        <v>208004.1</v>
       </c>
       <c r="J11" s="61">
         <f>(BT!$F$15)</f>
-        <v>3732.7</v>
+        <v>3535.1</v>
       </c>
       <c r="K11" s="61">
         <f>(BT!$F$14)</f>
-        <v>3051</v>
+        <v>2868</v>
       </c>
       <c r="L11" s="61">
         <f>(BT!$F$16)</f>
-        <v>487.9305619996893</v>
+        <v>1277.9503946206644</v>
       </c>
       <c r="M11" s="62">
         <f>(BT!$G$15)</f>
-        <v>22400</v>
+        <v>448003.9</v>
       </c>
       <c r="N11" s="61">
         <f>(BT!$H$15)</f>
-        <v>118579.1</v>
+        <v>195072.7</v>
       </c>
       <c r="O11" s="61">
         <f>(BT!$H$14)</f>
-        <v>89070</v>
+        <v>98462</v>
       </c>
       <c r="P11" s="61">
         <f>(BT!$H$16)</f>
-        <v>62252.907054744566</v>
+        <v>121800.633046202</v>
       </c>
       <c r="Q11" s="62">
         <f>(BT!$I$15)</f>
-        <v>52320</v>
+        <v>1046403.4</v>
       </c>
       <c r="R11" s="61">
         <f>(BT!$J$15)</f>
-        <v>1315392.8999999999</v>
+        <v>1455780.5</v>
       </c>
       <c r="S11" s="61">
         <f>(BT!$J$14)</f>
-        <v>1123463</v>
+        <v>1367140</v>
       </c>
       <c r="T11" s="61">
         <f>(BT!$J$16)</f>
-        <v>83870.726668354197</v>
+        <v>59935.932711984678</v>
       </c>
       <c r="U11" s="62">
         <f>(BT!$K$15)</f>
-        <v>86720</v>
+        <v>1734404</v>
       </c>
       <c r="V11" s="61">
         <f>(BT!$L$15)</f>
-        <v>2169390.5</v>
+        <v>2527439.4</v>
       </c>
       <c r="W11" s="61">
         <f>(BT!$L$14)</f>
-        <v>2009693</v>
+        <v>2303177</v>
       </c>
       <c r="X11" s="61">
         <f>(BT!$L$16)</f>
-        <v>101216.73451037849</v>
+        <v>142467.09554154758</v>
       </c>
       <c r="Y11" s="58">
         <f>(BT!$M$15)</f>
-        <v>139840</v>
+        <v>2796804</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" thickTop="1"/>
@@ -9335,68 +9407,68 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" thickTop="1">
       <c r="A6" s="28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="28" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -9928,7 +10000,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickTop="1">
       <c r="A14" s="50" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B14" s="40">
         <f>MIN(B4:B13)</f>
@@ -10152,7 +10224,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="I22" s="28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -10184,7 +10256,7 @@
         <v>49</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -10207,7 +10279,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -10230,7 +10302,7 @@
         <v>55</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -10253,7 +10325,7 @@
         <v>58</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -10276,7 +10348,7 @@
         <v>61</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -10299,7 +10371,7 @@
         <v>64</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -10322,7 +10394,7 @@
         <v>67</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -10345,7 +10417,7 @@
         <v>70</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -10368,7 +10440,7 @@
         <v>73</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -10391,7 +10463,7 @@
         <v>76</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -10429,7 +10501,7 @@
         <v>90</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -10913,7 +10985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C429CC-C812-4F8C-8EA4-EC16AECA674E}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -11424,7 +11496,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickTop="1">
       <c r="A14" s="50" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B14" s="83">
         <f>MIN(B4:B13)</f>
@@ -11622,13 +11694,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="28" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -11638,112 +11710,112 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="28" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="28" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="28" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="28" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="28" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="28" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="28" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -11759,13 +11831,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -11781,13 +11853,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -11823,13 +11895,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="28" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -11839,112 +11911,112 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="28" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="28" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="28" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="28" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="28" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="28" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="28" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="28" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="28" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -11960,13 +12032,13 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="28" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -11982,13 +12054,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="28" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -12010,19 +12082,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D2118-5D27-45B0-A2FB-C114FCC5EAEA}">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickTop="1">
@@ -12520,7 +12593,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickTop="1">
       <c r="A14" s="50" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B14" s="40">
         <f>MIN(B4:B13)</f>
@@ -12717,13 +12790,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="28" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K22" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -12735,37 +12808,37 @@
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H24" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I24" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
       </c>
       <c r="L24" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M24" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N24" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -12773,37 +12846,37 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F25" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H25" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I25" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s">
         <v>50</v>
       </c>
       <c r="L25" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M25" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N25" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -12811,37 +12884,37 @@
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F26" s="28" t="s">
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H26" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I26" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
         <v>53</v>
       </c>
       <c r="L26" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M26" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="N26" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -12849,37 +12922,37 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D27" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H27" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I27" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M27" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="N27" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -12887,37 +12960,37 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C28" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F28" s="28" t="s">
         <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H28" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>59</v>
       </c>
       <c r="L28" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M28" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N28" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -12925,37 +12998,37 @@
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D29" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H29" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K29" t="s">
         <v>62</v>
       </c>
       <c r="L29" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M29" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="N29" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -12963,37 +13036,37 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H30" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s">
         <v>65</v>
       </c>
       <c r="L30" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M30" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="N30" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -13001,37 +13074,37 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F31" s="28" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H31" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K31" t="s">
         <v>68</v>
       </c>
       <c r="L31" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M31" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="N31" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -13039,37 +13112,37 @@
         <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F32" s="28" t="s">
         <v>71</v>
       </c>
       <c r="G32" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H32" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I32" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
         <v>71</v>
       </c>
       <c r="L32" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M32" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -13077,37 +13150,37 @@
         <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F33" s="28" t="s">
         <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H33" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s">
         <v>74</v>
       </c>
       <c r="L33" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -13129,7 +13202,7 @@
         <v>1034800000</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F35" s="28" t="s">
         <v>77</v>
@@ -13138,7 +13211,7 @@
         <v>13721800000</v>
       </c>
       <c r="H35" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
         <v>77</v>
@@ -13147,7 +13220,7 @@
         <v>9459600000</v>
       </c>
       <c r="M35" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -13158,7 +13231,7 @@
         <v>97869300000</v>
       </c>
       <c r="C36" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F36" t="s">
         <v>134</v>
@@ -13167,7 +13240,7 @@
         <v>209488700000</v>
       </c>
       <c r="H36" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
         <v>134</v>
@@ -13176,18 +13249,18 @@
         <v>450653100000</v>
       </c>
       <c r="M36" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F37" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -13218,13 +13291,13 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F41" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K41" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -13232,37 +13305,37 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C43" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F43" t="s">
         <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H43" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="I43" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K43" t="s">
         <v>47</v>
       </c>
       <c r="L43" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M43" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="N43" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -13270,37 +13343,37 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C44" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D44" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F44" t="s">
         <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H44" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I44" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K44" t="s">
         <v>50</v>
       </c>
       <c r="L44" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="N44" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -13308,37 +13381,37 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C45" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D45" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F45" t="s">
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H45" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="I45" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K45" t="s">
         <v>53</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="N45" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -13346,37 +13419,37 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C46" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D46" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F46" t="s">
         <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H46" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I46" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K46" t="s">
         <v>56</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="N46" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -13384,37 +13457,37 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C47" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F47" t="s">
         <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H47" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="I47" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K47" t="s">
         <v>59</v>
       </c>
       <c r="L47" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="N47" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -13422,37 +13495,37 @@
         <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C48" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F48" t="s">
         <v>62</v>
       </c>
       <c r="G48" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H48" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I48" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K48" t="s">
         <v>62</v>
       </c>
       <c r="L48" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M48" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="N48" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -13460,37 +13533,37 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C49" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D49" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F49" t="s">
         <v>65</v>
       </c>
       <c r="G49" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H49" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I49" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K49" t="s">
         <v>65</v>
       </c>
       <c r="L49" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="N49" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -13498,37 +13571,37 @@
         <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C50" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D50" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F50" t="s">
         <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H50" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I50" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K50" t="s">
         <v>68</v>
       </c>
       <c r="L50" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -13536,37 +13609,37 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D51" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F51" t="s">
         <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H51" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="I51" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K51" t="s">
         <v>71</v>
       </c>
       <c r="L51" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="N51" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -13574,37 +13647,37 @@
         <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C52" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D52" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F52" t="s">
         <v>74</v>
       </c>
       <c r="G52" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H52" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="I52" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K52" t="s">
         <v>74</v>
       </c>
       <c r="L52" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="N52" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -13626,7 +13699,7 @@
         <v>562845100000</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F54" t="s">
         <v>77</v>
@@ -13635,7 +13708,7 @@
         <v>3625329200000</v>
       </c>
       <c r="H54" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K54" t="s">
         <v>77</v>
@@ -13644,7 +13717,7 @@
         <v>7789171.0999999996</v>
       </c>
       <c r="M54" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -13655,7 +13728,7 @@
         <v>1047920300000</v>
       </c>
       <c r="C55" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F55" t="s">
         <v>134</v>
@@ -13664,7 +13737,7 @@
         <v>1734984600000</v>
       </c>
       <c r="H55" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="K55" t="s">
         <v>134</v>
@@ -13673,18 +13746,18 @@
         <v>2797104.5</v>
       </c>
       <c r="M55" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F56" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K56" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -13710,8 +13783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F55487B-4492-4324-AD65-3A5DA661CCFB}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:N58"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13819,40 +13892,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>998</v>
+        <v>950</v>
       </c>
       <c r="C4" s="1">
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D4" s="3">
-        <v>9937</v>
+        <v>10560</v>
       </c>
       <c r="E4" s="3">
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F4" s="5">
-        <v>6322</v>
+        <v>6048</v>
       </c>
       <c r="G4" s="5">
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H4" s="7">
-        <v>346628</v>
+        <v>318852</v>
       </c>
       <c r="I4" s="7">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J4" s="9">
-        <v>1254683</v>
+        <v>1300005</v>
       </c>
       <c r="K4" s="9">
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L4" s="11">
-        <v>2315263</v>
+        <v>2215078</v>
       </c>
       <c r="M4" s="12">
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -13860,40 +13933,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1009</v>
+        <v>1126</v>
       </c>
       <c r="C5" s="1">
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D5" s="3">
-        <v>11002</v>
+        <v>11910</v>
       </c>
       <c r="E5" s="3">
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F5" s="5">
-        <v>6105</v>
+        <v>6314</v>
       </c>
       <c r="G5" s="5">
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H5" s="7">
-        <v>321223</v>
+        <v>342624</v>
       </c>
       <c r="I5" s="7">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J5" s="9">
-        <v>1306200</v>
+        <v>1398311</v>
       </c>
       <c r="K5" s="9">
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L5" s="11">
-        <v>2280860</v>
+        <v>2398102</v>
       </c>
       <c r="M5" s="12">
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -13901,40 +13974,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="C6" s="1">
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D6" s="3">
-        <v>9562</v>
+        <v>11424</v>
       </c>
       <c r="E6" s="3">
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F6" s="5">
-        <v>6418</v>
+        <v>6781</v>
       </c>
       <c r="G6" s="5">
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H6" s="7">
-        <v>336598</v>
+        <v>320283</v>
       </c>
       <c r="I6" s="7">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J6" s="9">
-        <v>1206424</v>
+        <v>1322923</v>
       </c>
       <c r="K6" s="9">
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L6" s="11">
-        <v>2400820</v>
+        <v>2356964</v>
       </c>
       <c r="M6" s="12">
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -13942,40 +14015,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1024</v>
+        <v>900</v>
       </c>
       <c r="C7" s="1">
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D7" s="3">
-        <v>10998</v>
+        <v>9981</v>
       </c>
       <c r="E7" s="3">
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F7" s="5">
-        <v>6394</v>
+        <v>6315</v>
       </c>
       <c r="G7" s="5">
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H7" s="7">
-        <v>316380</v>
+        <v>307500</v>
       </c>
       <c r="I7" s="7">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J7" s="9">
-        <v>1312050</v>
+        <v>1233144</v>
       </c>
       <c r="K7" s="9">
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L7" s="11">
-        <v>2263512</v>
+        <v>2245650</v>
       </c>
       <c r="M7" s="12">
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -13983,40 +14056,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1177</v>
+        <v>1094</v>
       </c>
       <c r="C8" s="1">
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D8" s="3">
-        <v>10077</v>
+        <v>11193</v>
       </c>
       <c r="E8" s="3">
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F8" s="5">
-        <v>6671</v>
+        <v>6218</v>
       </c>
       <c r="G8" s="5">
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H8" s="7">
-        <v>343343</v>
+        <v>374388</v>
       </c>
       <c r="I8" s="7">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J8" s="9">
-        <v>1255445</v>
+        <v>1292924</v>
       </c>
       <c r="K8" s="9">
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L8" s="11">
-        <v>2294621</v>
+        <v>2308416</v>
       </c>
       <c r="M8" s="12">
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -14024,40 +14097,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1095</v>
+        <v>910</v>
       </c>
       <c r="C9" s="1">
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D9" s="3">
-        <v>10098</v>
+        <v>11160</v>
       </c>
       <c r="E9" s="3">
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F9" s="5">
-        <v>6457</v>
+        <v>6418</v>
       </c>
       <c r="G9" s="5">
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H9" s="7">
-        <v>313882</v>
+        <v>322763</v>
       </c>
       <c r="I9" s="7">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J9" s="9">
-        <v>1256615</v>
+        <v>1306309</v>
       </c>
       <c r="K9" s="9">
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L9" s="11">
-        <v>2316322</v>
+        <v>2260814</v>
       </c>
       <c r="M9" s="12">
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -14065,40 +14138,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1151</v>
+        <v>955</v>
       </c>
       <c r="C10" s="1">
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D10" s="3">
-        <v>11488</v>
+        <v>11559</v>
       </c>
       <c r="E10" s="3">
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F10" s="5">
-        <v>6105</v>
+        <v>5521</v>
       </c>
       <c r="G10" s="5">
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H10" s="7">
-        <v>262763</v>
+        <v>355828</v>
       </c>
       <c r="I10" s="7">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J10" s="9">
-        <v>1338345</v>
+        <v>1286527</v>
       </c>
       <c r="K10" s="9">
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L10" s="11">
-        <v>2240709</v>
+        <v>2279721</v>
       </c>
       <c r="M10" s="12">
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -14106,40 +14179,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1035</v>
+        <v>976</v>
       </c>
       <c r="C11" s="1">
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D11" s="3">
-        <v>11419</v>
+        <v>10737</v>
       </c>
       <c r="E11" s="3">
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F11" s="5">
-        <v>6555</v>
+        <v>5856</v>
       </c>
       <c r="G11" s="5">
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H11" s="7">
-        <v>300437</v>
+        <v>349229</v>
       </c>
       <c r="I11" s="7">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J11" s="9">
-        <v>1249573</v>
+        <v>1237837</v>
       </c>
       <c r="K11" s="9">
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L11" s="11">
-        <v>2228718</v>
+        <v>2209846</v>
       </c>
       <c r="M11" s="12">
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -14147,40 +14220,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>981</v>
+        <v>1121</v>
       </c>
       <c r="C12" s="1">
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D12" s="3">
-        <v>11033</v>
+        <v>10357</v>
       </c>
       <c r="E12" s="3">
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F12" s="5">
-        <v>6580</v>
+        <v>5236</v>
       </c>
       <c r="G12" s="5">
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H12" s="7">
-        <v>283542</v>
+        <v>367920</v>
       </c>
       <c r="I12" s="7">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J12" s="9">
-        <v>1315818</v>
+        <v>1277652</v>
       </c>
       <c r="K12" s="9">
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L12" s="11">
-        <v>2355339</v>
+        <v>2203989</v>
       </c>
       <c r="M12" s="12">
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -14188,93 +14261,93 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>1043</v>
+        <v>916</v>
       </c>
       <c r="C13" s="2">
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D13" s="4">
-        <v>10604</v>
+        <v>10434</v>
       </c>
       <c r="E13" s="4">
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F13" s="6">
-        <v>6782</v>
+        <v>5974</v>
       </c>
       <c r="G13" s="6">
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H13" s="8">
-        <v>353024</v>
+        <v>389706</v>
       </c>
       <c r="I13" s="8">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J13" s="10">
-        <v>1368740</v>
+        <v>1287425</v>
       </c>
       <c r="K13" s="10">
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L13" s="13">
-        <v>2369259</v>
+        <v>2272878</v>
       </c>
       <c r="M13" s="14">
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickTop="1">
       <c r="A14" s="50" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B14" s="53">
         <f>MIN(B4:B13)</f>
-        <v>981</v>
+        <v>900</v>
       </c>
       <c r="C14" s="53">
         <f t="shared" ref="C14:M14" si="0">MIN(C4:C13)</f>
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D14" s="53">
         <f t="shared" si="0"/>
-        <v>9562</v>
+        <v>9981</v>
       </c>
       <c r="E14" s="53">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F14" s="53">
         <f t="shared" si="0"/>
-        <v>6105</v>
+        <v>5236</v>
       </c>
       <c r="G14" s="53">
         <f t="shared" si="0"/>
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H14" s="53">
         <f t="shared" si="0"/>
-        <v>262763</v>
+        <v>307500</v>
       </c>
       <c r="I14" s="53">
         <f t="shared" si="0"/>
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="0"/>
-        <v>1206424</v>
+        <v>1233144</v>
       </c>
       <c r="K14" s="53">
         <f t="shared" si="0"/>
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L14" s="53">
         <f t="shared" si="0"/>
-        <v>2228718</v>
+        <v>2203989</v>
       </c>
       <c r="M14" s="54">
         <f t="shared" si="0"/>
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -14283,51 +14356,51 @@
       </c>
       <c r="B15" s="40">
         <f>AVERAGE(B4:B13)</f>
-        <v>1060.3</v>
+        <v>1000.2</v>
       </c>
       <c r="C15" s="40">
         <f>AVERAGE(C4:C13)</f>
-        <v>5600</v>
+        <v>112001</v>
       </c>
       <c r="D15" s="40">
         <f t="shared" ref="D15:M15" si="1">AVERAGE(D4:D13)</f>
-        <v>10621.8</v>
+        <v>10931.5</v>
       </c>
       <c r="E15" s="40">
         <f t="shared" si="1"/>
-        <v>10400</v>
+        <v>208001</v>
       </c>
       <c r="F15" s="40">
         <f t="shared" si="1"/>
-        <v>6438.9</v>
+        <v>6068.1</v>
       </c>
       <c r="G15" s="40">
         <f t="shared" si="1"/>
-        <v>22400</v>
+        <v>448001</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="1"/>
-        <v>317782</v>
+        <v>344909.3</v>
       </c>
       <c r="I15" s="40">
         <f t="shared" si="1"/>
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J15" s="40">
         <f t="shared" si="1"/>
-        <v>1286389.3</v>
+        <v>1294305.7</v>
       </c>
       <c r="K15" s="40">
         <f t="shared" si="1"/>
-        <v>86720</v>
+        <v>1734401</v>
       </c>
       <c r="L15" s="40">
         <f t="shared" si="1"/>
-        <v>2306542.2999999998</v>
+        <v>2275145.7999999998</v>
       </c>
       <c r="M15" s="51">
         <f t="shared" si="1"/>
-        <v>139840</v>
+        <v>2796801</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
@@ -14336,7 +14409,7 @@
       </c>
       <c r="B16" s="39">
         <f>STDEVA(B4:B13)</f>
-        <v>65.819703230365093</v>
+        <v>89.768591389193588</v>
       </c>
       <c r="C16" s="39">
         <f>STDEVA(C4:C13)</f>
@@ -14344,7 +14417,7 @@
       </c>
       <c r="D16" s="39">
         <f t="shared" ref="D16:M16" si="2">STDEVA(D4:D13)</f>
-        <v>667.05085596560366</v>
+        <v>612.02927489894898</v>
       </c>
       <c r="E16" s="39">
         <f t="shared" si="2"/>
@@ -14352,7 +14425,7 @@
       </c>
       <c r="F16" s="39">
         <f t="shared" si="2"/>
-        <v>222.21133584445633</v>
+        <v>449.75387096104515</v>
       </c>
       <c r="G16" s="39">
         <f t="shared" si="2"/>
@@ -14360,7 +14433,7 @@
       </c>
       <c r="H16" s="39">
         <f t="shared" si="2"/>
-        <v>29080.023551877977</v>
+        <v>27332.688362512425</v>
       </c>
       <c r="I16" s="39">
         <f t="shared" si="2"/>
@@ -14368,7 +14441,7 @@
       </c>
       <c r="J16" s="39">
         <f t="shared" si="2"/>
-        <v>49438.237055160273</v>
+        <v>46102.76946381131</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
@@ -14376,7 +14449,7 @@
       </c>
       <c r="L16" s="39">
         <f t="shared" si="2"/>
-        <v>56192.555806006108</v>
+        <v>64080.092177766965</v>
       </c>
       <c r="M16" s="52">
         <f t="shared" si="2"/>
@@ -14385,7 +14458,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1"/>
     <row r="18" spans="1:13">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>133</v>
       </c>
       <c r="B18" s="30"/>
@@ -14405,7 +14478,7 @@
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="27"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -14419,7 +14492,7 @@
       <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="30"/>
@@ -14439,8 +14512,8 @@
       <c r="M20" s="30"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="28" t="s">
-        <v>570</v>
+      <c r="A21" s="29" t="s">
+        <v>404</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -14452,34 +14525,34 @@
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="J21" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="28" t="s">
-        <v>571</v>
+      <c r="A22" s="29" t="s">
+        <v>442</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="J22" s="30" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="27"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -14493,327 +14566,387 @@
       <c r="M23" s="30"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="A24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>445</v>
+      </c>
       <c r="E24" s="30" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>47</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="A25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>447</v>
+      </c>
       <c r="E25" s="30" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>50</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="A26" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>449</v>
+      </c>
       <c r="E26" s="30" t="s">
         <v>53</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>53</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="A27" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>451</v>
+      </c>
       <c r="E27" s="30" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>56</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="A28" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>453</v>
+      </c>
       <c r="E28" s="30" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>59</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="A29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>455</v>
+      </c>
       <c r="E29" s="30" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="J29" s="30" t="s">
         <v>62</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="L29" s="30" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>457</v>
+      </c>
       <c r="E30" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J30" s="30" t="s">
         <v>65</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="M30" s="30" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="A31" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>459</v>
+      </c>
       <c r="E31" s="30" t="s">
         <v>68</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="J31" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="L31" s="30" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="M31" s="30" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="28" t="s">
-        <v>580</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>461</v>
+      </c>
       <c r="E32" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="J32" s="30" t="s">
         <v>71</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="M32" s="30" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>463</v>
+      </c>
       <c r="E33" s="30" t="s">
         <v>74</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="J33" s="30" t="s">
         <v>74</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="M33" s="30" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="30"/>
@@ -14833,76 +14966,84 @@
       <c r="M34" s="30"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="A35" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>465</v>
+      </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30" t="s">
         <v>77</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="H35" s="30"/>
       <c r="J35" s="30" t="s">
         <v>77</v>
       </c>
       <c r="K35" s="30" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="L35" s="30" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="M35" s="30"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="A36" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>170</v>
+      </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30" t="s">
         <v>134</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>176</v>
+        <v>482</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H36" s="30"/>
       <c r="J36" s="30" t="s">
         <v>134</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>177</v>
+        <v>496</v>
       </c>
       <c r="L36" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M36" s="30"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="28" t="s">
-        <v>584</v>
+      <c r="A37" s="29" t="s">
+        <v>467</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="E37" s="30" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
       <c r="J37" s="30" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
@@ -14970,19 +15111,19 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="J42" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
@@ -14990,19 +15131,19 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="30" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="J43" s="30" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
@@ -15027,37 +15168,37 @@
         <v>47</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="E45" s="30" t="s">
         <v>47</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>47</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="M45" s="30" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -15065,37 +15206,37 @@
         <v>50</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>50</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="M46" s="30" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -15103,37 +15244,37 @@
         <v>53</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>53</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>53</v>
       </c>
       <c r="K47" s="30" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="M47" s="30" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -15141,37 +15282,37 @@
         <v>56</v>
       </c>
       <c r="B48" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="D48" s="30" t="s">
         <v>451</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>413</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>56</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="M48" s="30" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -15179,37 +15320,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>59</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="J49" s="30" t="s">
         <v>59</v>
       </c>
       <c r="K49" s="30" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="M49" s="30" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -15217,37 +15358,37 @@
         <v>62</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>62</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="J50" s="30" t="s">
         <v>62</v>
       </c>
       <c r="K50" s="30" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="M50" s="30" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -15255,37 +15396,37 @@
         <v>65</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>65</v>
       </c>
       <c r="K51" s="30" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="L51" s="30" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="M51" s="30" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -15293,37 +15434,37 @@
         <v>68</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>68</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="J52" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K52" s="30" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="M52" s="30" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -15331,37 +15472,37 @@
         <v>71</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="J53" s="30" t="s">
         <v>71</v>
       </c>
       <c r="K53" s="30" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="M53" s="30" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -15369,37 +15510,37 @@
         <v>74</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>74</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="J54" s="30" t="s">
         <v>74</v>
       </c>
       <c r="K54" s="30" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="M54" s="30" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -15427,30 +15568,30 @@
         <v>77</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
         <v>77</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>627</v>
+        <v>526</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>626</v>
+        <v>527</v>
       </c>
       <c r="H56" s="30"/>
       <c r="J56" s="30" t="s">
         <v>77</v>
       </c>
       <c r="K56" s="30" t="s">
-        <v>622</v>
+        <v>542</v>
       </c>
       <c r="L56" s="30" t="s">
-        <v>624</v>
+        <v>543</v>
       </c>
       <c r="M56" s="30"/>
     </row>
@@ -15459,48 +15600,48 @@
         <v>134</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>178</v>
+        <v>512</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
         <v>134</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H57" s="30"/>
       <c r="J57" s="30" t="s">
         <v>134</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>623</v>
+        <v>544</v>
       </c>
       <c r="L57" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M57" s="30"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="30" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
       <c r="J58" s="30" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="30"/>
@@ -15560,8 +15701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C6822D-B51D-40C1-94BE-2EDC287E1E28}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:L56"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15578,7 +15719,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickTop="1">
       <c r="A1" s="86" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -15664,40 +15805,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1078</v>
+        <v>980</v>
       </c>
       <c r="C4" s="1">
-        <v>2800</v>
+        <v>112003</v>
       </c>
       <c r="D4" s="3">
-        <v>10341</v>
+        <v>10250</v>
       </c>
       <c r="E4" s="3">
-        <v>10400</v>
+        <v>208004</v>
       </c>
       <c r="F4" s="5">
-        <v>3679</v>
+        <v>7122</v>
       </c>
       <c r="G4" s="5">
-        <v>22400</v>
+        <v>448004</v>
       </c>
       <c r="H4" s="7">
-        <v>105065</v>
+        <v>98462</v>
       </c>
       <c r="I4" s="7">
-        <v>52320</v>
+        <v>1046404</v>
       </c>
       <c r="J4" s="9">
-        <v>1308794</v>
+        <v>1493573</v>
       </c>
       <c r="K4" s="9">
-        <v>86720</v>
+        <v>1734405</v>
       </c>
       <c r="L4" s="11">
-        <v>2155894</v>
+        <v>2570327</v>
       </c>
       <c r="M4" s="12">
-        <v>139840</v>
+        <v>2796804</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -15705,40 +15846,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C5" s="1">
-        <v>2800</v>
+        <v>112004</v>
       </c>
       <c r="D5" s="3">
-        <v>9979</v>
+        <v>11195</v>
       </c>
       <c r="E5" s="3">
-        <v>10400</v>
+        <v>208004</v>
       </c>
       <c r="F5" s="5">
-        <v>4286</v>
+        <v>2996</v>
       </c>
       <c r="G5" s="5">
-        <v>22400</v>
+        <v>448004</v>
       </c>
       <c r="H5" s="7">
-        <v>95205</v>
+        <v>329114</v>
       </c>
       <c r="I5" s="7">
-        <v>52320</v>
+        <v>1046403</v>
       </c>
       <c r="J5" s="9">
-        <v>1231690</v>
+        <v>1469902</v>
       </c>
       <c r="K5" s="9">
-        <v>86720</v>
+        <v>1734404</v>
       </c>
       <c r="L5" s="11">
-        <v>2009693</v>
+        <v>2409871</v>
       </c>
       <c r="M5" s="12">
-        <v>139840</v>
+        <v>2796802</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -15746,40 +15887,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="C6" s="1">
-        <v>2800</v>
+        <v>112005</v>
       </c>
       <c r="D6" s="3">
-        <v>10644</v>
+        <v>11310</v>
       </c>
       <c r="E6" s="3">
-        <v>10400</v>
+        <v>208004</v>
       </c>
       <c r="F6" s="5">
-        <v>3051</v>
+        <v>2879</v>
       </c>
       <c r="G6" s="5">
-        <v>22400</v>
+        <v>448004</v>
       </c>
       <c r="H6" s="7">
-        <v>294665</v>
+        <v>99219</v>
       </c>
       <c r="I6" s="7">
-        <v>52320</v>
+        <v>1046404</v>
       </c>
       <c r="J6" s="9">
-        <v>1384118</v>
+        <v>1395645</v>
       </c>
       <c r="K6" s="9">
-        <v>86720</v>
+        <v>1734403</v>
       </c>
       <c r="L6" s="11">
-        <v>2148421</v>
+        <v>2696201</v>
       </c>
       <c r="M6" s="12">
-        <v>139840</v>
+        <v>2796804</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -15787,40 +15928,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="C7" s="1">
-        <v>2800</v>
+        <v>112004</v>
       </c>
       <c r="D7" s="3">
-        <v>10818</v>
+        <v>10306</v>
       </c>
       <c r="E7" s="3">
-        <v>10400</v>
+        <v>208003</v>
       </c>
       <c r="F7" s="5">
-        <v>4189</v>
+        <v>3245</v>
       </c>
       <c r="G7" s="5">
-        <v>22400</v>
+        <v>448004</v>
       </c>
       <c r="H7" s="7">
-        <v>104426</v>
+        <v>100353</v>
       </c>
       <c r="I7" s="7">
-        <v>52320</v>
+        <v>1046404</v>
       </c>
       <c r="J7" s="9">
-        <v>1123463</v>
+        <v>1416843</v>
       </c>
       <c r="K7" s="9">
-        <v>86720</v>
+        <v>1734404</v>
       </c>
       <c r="L7" s="11">
-        <v>2322030</v>
+        <v>2303177</v>
       </c>
       <c r="M7" s="12">
-        <v>139840</v>
+        <v>2796804</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -15828,40 +15969,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>906</v>
+        <v>1023</v>
       </c>
       <c r="C8" s="1">
-        <v>2800</v>
+        <v>112005</v>
       </c>
       <c r="D8" s="3">
-        <v>10401</v>
+        <v>9992</v>
       </c>
       <c r="E8" s="3">
-        <v>10400</v>
+        <v>208005</v>
       </c>
       <c r="F8" s="5">
-        <v>3627</v>
+        <v>2868</v>
       </c>
       <c r="G8" s="5">
-        <v>22400</v>
+        <v>448003</v>
       </c>
       <c r="H8" s="7">
-        <v>95035</v>
+        <v>328567</v>
       </c>
       <c r="I8" s="7">
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J8" s="9">
-        <v>1349964</v>
+        <v>1367140</v>
       </c>
       <c r="K8" s="9">
-        <v>86720</v>
+        <v>1734403</v>
       </c>
       <c r="L8" s="11">
-        <v>2124652</v>
+        <v>2641385</v>
       </c>
       <c r="M8" s="12">
-        <v>139840</v>
+        <v>2796804</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -15869,40 +16010,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="C9" s="1">
-        <v>2800</v>
+        <v>112004</v>
       </c>
       <c r="D9" s="3">
-        <v>10907</v>
+        <v>11285</v>
       </c>
       <c r="E9" s="3">
-        <v>10400</v>
+        <v>208005</v>
       </c>
       <c r="F9" s="5">
-        <v>3090</v>
+        <v>3474</v>
       </c>
       <c r="G9" s="5">
-        <v>22400</v>
+        <v>448005</v>
       </c>
       <c r="H9" s="7">
-        <v>90535</v>
+        <v>103497</v>
       </c>
       <c r="I9" s="7">
-        <v>52320</v>
+        <v>1046404</v>
       </c>
       <c r="J9" s="9">
-        <v>1310292</v>
+        <v>1469118</v>
       </c>
       <c r="K9" s="9">
-        <v>86720</v>
+        <v>1734404</v>
       </c>
       <c r="L9" s="11">
-        <v>2109985</v>
+        <v>2604359</v>
       </c>
       <c r="M9" s="12">
-        <v>139840</v>
+        <v>2796805</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -15910,40 +16051,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1088</v>
+        <v>989</v>
       </c>
       <c r="C10" s="1">
-        <v>2800</v>
+        <v>112004</v>
       </c>
       <c r="D10" s="3">
-        <v>10127</v>
+        <v>10330</v>
       </c>
       <c r="E10" s="3">
-        <v>10400</v>
+        <v>208005</v>
       </c>
       <c r="F10" s="5">
-        <v>3343</v>
+        <v>3034</v>
       </c>
       <c r="G10" s="5">
-        <v>22400</v>
+        <v>448004</v>
       </c>
       <c r="H10" s="7">
-        <v>102185</v>
+        <v>348415</v>
       </c>
       <c r="I10" s="7">
-        <v>52320</v>
+        <v>1046404</v>
       </c>
       <c r="J10" s="9">
-        <v>1399255</v>
+        <v>1404381</v>
       </c>
       <c r="K10" s="9">
-        <v>86720</v>
+        <v>1734404</v>
       </c>
       <c r="L10" s="11">
-        <v>2276024</v>
+        <v>2660937</v>
       </c>
       <c r="M10" s="12">
-        <v>139840</v>
+        <v>2796805</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -15951,40 +16092,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>975</v>
+        <v>1013</v>
       </c>
       <c r="C11" s="1">
-        <v>2800</v>
+        <v>112003</v>
       </c>
       <c r="D11" s="3">
-        <v>11153</v>
+        <v>10816</v>
       </c>
       <c r="E11" s="3">
-        <v>10400</v>
+        <v>208004</v>
       </c>
       <c r="F11" s="5">
-        <v>3857</v>
+        <v>3126</v>
       </c>
       <c r="G11" s="5">
-        <v>22400</v>
+        <v>448003</v>
       </c>
       <c r="H11" s="7">
-        <v>89070</v>
+        <v>102587</v>
       </c>
       <c r="I11" s="7">
-        <v>52320</v>
+        <v>1046405</v>
       </c>
       <c r="J11" s="9">
-        <v>1375614</v>
+        <v>1503934</v>
       </c>
       <c r="K11" s="9">
-        <v>86720</v>
+        <v>1734404</v>
       </c>
       <c r="L11" s="11">
-        <v>2095610</v>
+        <v>2436246</v>
       </c>
       <c r="M11" s="12">
-        <v>139840</v>
+        <v>2796804</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -15992,40 +16133,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1054</v>
+        <v>1076</v>
       </c>
       <c r="C12" s="1">
-        <v>2800</v>
+        <v>112005</v>
       </c>
       <c r="D12" s="3">
-        <v>11341</v>
+        <v>10856</v>
       </c>
       <c r="E12" s="3">
-        <v>10400</v>
+        <v>208003</v>
       </c>
       <c r="F12" s="5">
-        <v>3718</v>
+        <v>3141</v>
       </c>
       <c r="G12" s="5">
-        <v>22400</v>
+        <v>448005</v>
       </c>
       <c r="H12" s="7">
-        <v>98347</v>
+        <v>339662</v>
       </c>
       <c r="I12" s="7">
-        <v>52320</v>
+        <v>1046402</v>
       </c>
       <c r="J12" s="9">
-        <v>1303589</v>
+        <v>1566976</v>
       </c>
       <c r="K12" s="9">
-        <v>86720</v>
+        <v>1734405</v>
       </c>
       <c r="L12" s="11">
-        <v>2309676</v>
+        <v>2613595</v>
       </c>
       <c r="M12" s="12">
-        <v>139840</v>
+        <v>2796804</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -16033,93 +16174,93 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>1068</v>
+        <v>976</v>
       </c>
       <c r="C13" s="1">
-        <v>2800</v>
+        <v>112004</v>
       </c>
       <c r="D13" s="4">
-        <v>10886</v>
+        <v>10890</v>
       </c>
       <c r="E13" s="3">
-        <v>10400</v>
+        <v>208004</v>
       </c>
       <c r="F13" s="6">
-        <v>4487</v>
+        <v>3466</v>
       </c>
       <c r="G13" s="5">
-        <v>22400</v>
+        <v>448003</v>
       </c>
       <c r="H13" s="8">
-        <v>111258</v>
+        <v>100851</v>
       </c>
       <c r="I13" s="7">
-        <v>52320</v>
+        <v>1046403</v>
       </c>
       <c r="J13" s="10">
-        <v>1367150</v>
+        <v>1470293</v>
       </c>
       <c r="K13" s="9">
-        <v>86720</v>
+        <v>1734404</v>
       </c>
       <c r="L13" s="13">
-        <v>2141920</v>
+        <v>2338296</v>
       </c>
       <c r="M13" s="12">
-        <v>139840</v>
+        <v>2796804</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickTop="1">
       <c r="A14" s="50" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B14" s="53">
         <f>MIN(B4:B13)</f>
-        <v>906</v>
+        <v>976</v>
       </c>
       <c r="C14" s="53">
         <f t="shared" ref="C14:M14" si="0">MIN(C4:C13)</f>
-        <v>2800</v>
+        <v>112003</v>
       </c>
       <c r="D14" s="53">
         <f t="shared" si="0"/>
-        <v>9979</v>
+        <v>9992</v>
       </c>
       <c r="E14" s="53">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>208003</v>
       </c>
       <c r="F14" s="53">
         <f t="shared" si="0"/>
-        <v>3051</v>
+        <v>2868</v>
       </c>
       <c r="G14" s="53">
         <f t="shared" si="0"/>
-        <v>22400</v>
+        <v>448003</v>
       </c>
       <c r="H14" s="53">
         <f t="shared" si="0"/>
-        <v>89070</v>
+        <v>98462</v>
       </c>
       <c r="I14" s="53">
         <f t="shared" si="0"/>
-        <v>52320</v>
+        <v>1046401</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="0"/>
-        <v>1123463</v>
+        <v>1367140</v>
       </c>
       <c r="K14" s="53">
         <f t="shared" si="0"/>
-        <v>86720</v>
+        <v>1734403</v>
       </c>
       <c r="L14" s="53">
         <f t="shared" si="0"/>
-        <v>2009693</v>
+        <v>2303177</v>
       </c>
       <c r="M14" s="54">
         <f t="shared" si="0"/>
-        <v>139840</v>
+        <v>2796802</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -16128,51 +16269,51 @@
       </c>
       <c r="B15" s="40">
         <f>AVERAGE(B4:B13)</f>
-        <v>1029.3</v>
+        <v>1020.9</v>
       </c>
       <c r="C15" s="40">
         <f>AVERAGE(C4:C13)</f>
-        <v>2800</v>
+        <v>112004.1</v>
       </c>
       <c r="D15" s="40">
         <f t="shared" ref="D15:M15" si="1">AVERAGE(D4:D13)</f>
-        <v>10659.7</v>
+        <v>10723</v>
       </c>
       <c r="E15" s="40">
         <f t="shared" si="1"/>
-        <v>10400</v>
+        <v>208004.1</v>
       </c>
       <c r="F15" s="40">
         <f t="shared" si="1"/>
-        <v>3732.7</v>
+        <v>3535.1</v>
       </c>
       <c r="G15" s="40">
         <f t="shared" si="1"/>
-        <v>22400</v>
+        <v>448003.9</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="1"/>
-        <v>118579.1</v>
+        <v>195072.7</v>
       </c>
       <c r="I15" s="40">
         <f t="shared" si="1"/>
-        <v>52320</v>
+        <v>1046403.4</v>
       </c>
       <c r="J15" s="40">
         <f t="shared" si="1"/>
-        <v>1315392.8999999999</v>
+        <v>1455780.5</v>
       </c>
       <c r="K15" s="40">
         <f t="shared" si="1"/>
-        <v>86720</v>
+        <v>1734404</v>
       </c>
       <c r="L15" s="40">
         <f t="shared" si="1"/>
-        <v>2169390.5</v>
+        <v>2527439.4</v>
       </c>
       <c r="M15" s="51">
         <f t="shared" si="1"/>
-        <v>139840</v>
+        <v>2796804</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
@@ -16181,66 +16322,66 @@
       </c>
       <c r="B16" s="39">
         <f>STDEVA(B4:B13)</f>
-        <v>59.309077439011531</v>
+        <v>38.448956061539853</v>
       </c>
       <c r="C16" s="39">
         <f>STDEVA(C4:C13)</f>
-        <v>0</v>
+        <v>0.73786478737262184</v>
       </c>
       <c r="D16" s="39">
         <f t="shared" ref="D16:M16" si="2">STDEVA(D4:D13)</f>
-        <v>442.31789724385135</v>
+        <v>474.20717460245623</v>
       </c>
       <c r="E16" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.73786478737262184</v>
       </c>
       <c r="F16" s="39">
         <f t="shared" si="2"/>
-        <v>487.9305619996893</v>
+        <v>1277.9503946206644</v>
       </c>
       <c r="G16" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.73786478737262184</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="2"/>
-        <v>62252.907054744566</v>
+        <v>121800.633046202</v>
       </c>
       <c r="I16" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.1737877907772674</v>
       </c>
       <c r="J16" s="39">
         <f t="shared" si="2"/>
-        <v>83870.726668354197</v>
+        <v>59935.932711984678</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L16" s="39">
         <f t="shared" si="2"/>
-        <v>101216.73451037849</v>
+        <v>142467.09554154758</v>
       </c>
       <c r="M16" s="52">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickTop="1"/>
-    <row r="18" spans="1:11">
+        <v>0.81649658092772603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickTop="1"/>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -16251,319 +16392,409 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>572</v>
       </c>
       <c r="I21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="E22" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="I22" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="C24" t="s">
-        <v>487</v>
+        <v>549</v>
+      </c>
+      <c r="D24" t="s">
+        <v>568</v>
       </c>
       <c r="E24" t="s">
         <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="G24" t="s">
-        <v>487</v>
+        <v>575</v>
+      </c>
+      <c r="H24" t="s">
+        <v>568</v>
       </c>
       <c r="I24" t="s">
         <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="K24" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>591</v>
+      </c>
+      <c r="L24" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>486</v>
+        <v>567</v>
       </c>
       <c r="C25" t="s">
-        <v>488</v>
+        <v>547</v>
+      </c>
+      <c r="D25" t="s">
+        <v>552</v>
       </c>
       <c r="E25" t="s">
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="G25" t="s">
-        <v>488</v>
+        <v>575</v>
+      </c>
+      <c r="H25" t="s">
+        <v>552</v>
       </c>
       <c r="I25" t="s">
         <v>50</v>
       </c>
       <c r="J25" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="K25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>591</v>
+      </c>
+      <c r="L25" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="C26" t="s">
-        <v>490</v>
+        <v>548</v>
+      </c>
+      <c r="D26" t="s">
+        <v>569</v>
       </c>
       <c r="E26" t="s">
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="G26" t="s">
-        <v>490</v>
+        <v>575</v>
+      </c>
+      <c r="H26" t="s">
+        <v>569</v>
       </c>
       <c r="I26" t="s">
         <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="K26" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>591</v>
+      </c>
+      <c r="L26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="C27" t="s">
-        <v>492</v>
+        <v>547</v>
+      </c>
+      <c r="D27" t="s">
+        <v>553</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="G27" t="s">
-        <v>492</v>
+        <v>579</v>
+      </c>
+      <c r="H27" t="s">
+        <v>553</v>
       </c>
       <c r="I27" t="s">
         <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="K27" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>591</v>
+      </c>
+      <c r="L27" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
       <c r="C28" t="s">
-        <v>494</v>
+        <v>548</v>
+      </c>
+      <c r="D28" t="s">
+        <v>554</v>
       </c>
       <c r="E28" t="s">
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="G28" t="s">
-        <v>494</v>
+        <v>581</v>
+      </c>
+      <c r="H28" t="s">
+        <v>554</v>
       </c>
       <c r="I28" t="s">
         <v>59</v>
       </c>
       <c r="J28" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="K28" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>596</v>
+      </c>
+      <c r="L28" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="C29" t="s">
-        <v>496</v>
+        <v>547</v>
+      </c>
+      <c r="D29" t="s">
+        <v>555</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="G29" t="s">
-        <v>496</v>
+        <v>581</v>
+      </c>
+      <c r="H29" t="s">
+        <v>555</v>
       </c>
       <c r="I29" t="s">
         <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="K29" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>598</v>
+      </c>
+      <c r="L29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="C30" t="s">
-        <v>498</v>
+        <v>547</v>
+      </c>
+      <c r="D30" t="s">
+        <v>570</v>
       </c>
       <c r="E30" t="s">
         <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="G30" t="s">
-        <v>498</v>
+        <v>581</v>
+      </c>
+      <c r="H30" t="s">
+        <v>570</v>
       </c>
       <c r="I30" t="s">
         <v>65</v>
       </c>
       <c r="J30" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="K30" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>591</v>
+      </c>
+      <c r="L30" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="C31" t="s">
-        <v>500</v>
+        <v>549</v>
+      </c>
+      <c r="D31" t="s">
+        <v>556</v>
       </c>
       <c r="E31" t="s">
         <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="G31" t="s">
-        <v>500</v>
+        <v>575</v>
+      </c>
+      <c r="H31" t="s">
+        <v>556</v>
       </c>
       <c r="I31" t="s">
         <v>68</v>
       </c>
       <c r="J31" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="K31" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>596</v>
+      </c>
+      <c r="L31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="C32" t="s">
-        <v>502</v>
+        <v>548</v>
+      </c>
+      <c r="D32" t="s">
+        <v>557</v>
       </c>
       <c r="E32" t="s">
         <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="G32" t="s">
-        <v>502</v>
+        <v>579</v>
+      </c>
+      <c r="H32" t="s">
+        <v>557</v>
       </c>
       <c r="I32" t="s">
         <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="K32" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>598</v>
+      </c>
+      <c r="L32" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="C33" t="s">
-        <v>504</v>
+        <v>547</v>
+      </c>
+      <c r="D33" t="s">
+        <v>571</v>
       </c>
       <c r="E33" t="s">
         <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>575</v>
+      </c>
+      <c r="H33" t="s">
+        <v>571</v>
       </c>
       <c r="I33" t="s">
         <v>74</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>530</v>
+        <v>602</v>
       </c>
       <c r="K33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>596</v>
+      </c>
+      <c r="L33" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -16575,60 +16806,78 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="41">
-        <v>1029.3</v>
+        <v>1020900000</v>
       </c>
       <c r="C35" t="s">
-        <v>505</v>
+        <v>550</v>
       </c>
       <c r="E35" t="s">
         <v>77</v>
       </c>
       <c r="F35" s="41">
-        <v>10659.7</v>
+        <v>10723000000</v>
       </c>
       <c r="G35" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="I35" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="41">
-        <v>3732.7</v>
+        <v>3535100000</v>
       </c>
       <c r="K35" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>506</v>
+        <v>134</v>
+      </c>
+      <c r="B36" s="41">
+        <v>112004100000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>551</v>
       </c>
       <c r="E36" t="s">
-        <v>519</v>
+        <v>134</v>
+      </c>
+      <c r="F36" s="41">
+        <v>208004100000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>551</v>
       </c>
       <c r="I36" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>134</v>
+      </c>
+      <c r="J36" s="41">
+        <v>448003900000</v>
+      </c>
+      <c r="K36" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
         <v>29</v>
@@ -16637,321 +16886,401 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>139</v>
-      </c>
+    <row r="41" spans="1:12">
       <c r="E41" t="s">
-        <v>141</v>
+        <v>620</v>
       </c>
       <c r="I41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>532</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="I42" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>533</v>
-      </c>
-      <c r="C44" t="s">
-        <v>487</v>
+        <v>605</v>
       </c>
       <c r="E44" t="s">
         <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="G44" t="s">
-        <v>487</v>
+        <v>623</v>
+      </c>
+      <c r="H44" t="s">
+        <v>568</v>
       </c>
       <c r="I44" t="s">
         <v>47</v>
       </c>
       <c r="J44" t="s">
-        <v>559</v>
+        <v>639</v>
       </c>
       <c r="K44" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>534</v>
-      </c>
-      <c r="C45" t="s">
-        <v>488</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="L44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="E45" t="s">
         <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="G45" t="s">
-        <v>488</v>
+        <v>625</v>
+      </c>
+      <c r="H45" t="s">
+        <v>552</v>
       </c>
       <c r="I45" t="s">
         <v>50</v>
       </c>
       <c r="J45" t="s">
-        <v>560</v>
+        <v>641</v>
       </c>
       <c r="K45" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>642</v>
+      </c>
+      <c r="L45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="C46" t="s">
-        <v>490</v>
+        <v>607</v>
+      </c>
+      <c r="D46" t="s">
+        <v>568</v>
       </c>
       <c r="E46" t="s">
         <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="G46" t="s">
-        <v>490</v>
+        <v>627</v>
+      </c>
+      <c r="H46" t="s">
+        <v>569</v>
       </c>
       <c r="I46" t="s">
         <v>53</v>
       </c>
       <c r="J46" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="K46" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>640</v>
+      </c>
+      <c r="L46" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>536</v>
+        <v>608</v>
       </c>
       <c r="C47" t="s">
-        <v>492</v>
+        <v>609</v>
+      </c>
+      <c r="D47" t="s">
+        <v>552</v>
       </c>
       <c r="E47" t="s">
         <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>549</v>
+        <v>628</v>
       </c>
       <c r="G47" t="s">
-        <v>492</v>
+        <v>625</v>
+      </c>
+      <c r="H47" t="s">
+        <v>553</v>
       </c>
       <c r="I47" t="s">
         <v>56</v>
       </c>
       <c r="J47" t="s">
-        <v>562</v>
+        <v>644</v>
       </c>
       <c r="K47" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>640</v>
+      </c>
+      <c r="L47" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
       <c r="C48" t="s">
-        <v>494</v>
+        <v>607</v>
+      </c>
+      <c r="D48" t="s">
+        <v>569</v>
       </c>
       <c r="E48" t="s">
         <v>59</v>
       </c>
       <c r="F48" t="s">
-        <v>550</v>
+        <v>629</v>
       </c>
       <c r="G48" t="s">
-        <v>494</v>
+        <v>627</v>
+      </c>
+      <c r="H48" t="s">
+        <v>554</v>
       </c>
       <c r="I48" t="s">
         <v>59</v>
       </c>
       <c r="J48" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="K48" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>640</v>
+      </c>
+      <c r="L48" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="C49" t="s">
-        <v>496</v>
+        <v>607</v>
+      </c>
+      <c r="D49" t="s">
+        <v>553</v>
       </c>
       <c r="E49" t="s">
         <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>551</v>
+        <v>630</v>
       </c>
       <c r="G49" t="s">
-        <v>496</v>
+        <v>625</v>
+      </c>
+      <c r="H49" t="s">
+        <v>555</v>
       </c>
       <c r="I49" t="s">
         <v>62</v>
       </c>
       <c r="J49" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="K49" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>647</v>
+      </c>
+      <c r="L49" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="C50" t="s">
-        <v>498</v>
+        <v>500</v>
+      </c>
+      <c r="D50" t="s">
+        <v>554</v>
       </c>
       <c r="E50" t="s">
         <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>552</v>
+        <v>631</v>
       </c>
       <c r="G50" t="s">
-        <v>498</v>
+        <v>625</v>
+      </c>
+      <c r="H50" t="s">
+        <v>570</v>
       </c>
       <c r="I50" t="s">
         <v>65</v>
       </c>
       <c r="J50" s="41" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
       <c r="K50" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>647</v>
+      </c>
+      <c r="L50" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="C51" t="s">
-        <v>500</v>
+        <v>607</v>
+      </c>
+      <c r="D51" t="s">
+        <v>555</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>553</v>
+        <v>632</v>
       </c>
       <c r="G51" t="s">
-        <v>500</v>
+        <v>625</v>
+      </c>
+      <c r="H51" t="s">
+        <v>556</v>
       </c>
       <c r="I51" t="s">
         <v>68</v>
       </c>
       <c r="J51" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="K51" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>640</v>
+      </c>
+      <c r="L51" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="C52" t="s">
-        <v>502</v>
+        <v>607</v>
+      </c>
+      <c r="D52" t="s">
+        <v>570</v>
       </c>
       <c r="E52" t="s">
         <v>71</v>
       </c>
       <c r="F52" t="s">
-        <v>554</v>
+        <v>633</v>
       </c>
       <c r="G52" t="s">
-        <v>502</v>
+        <v>623</v>
+      </c>
+      <c r="H52" t="s">
+        <v>557</v>
       </c>
       <c r="I52" t="s">
         <v>71</v>
       </c>
       <c r="J52" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
       <c r="K52" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>640</v>
+      </c>
+      <c r="L52" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
       <c r="C53" t="s">
-        <v>504</v>
+        <v>616</v>
+      </c>
+      <c r="D53" t="s">
+        <v>556</v>
       </c>
       <c r="E53" t="s">
         <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="G53" t="s">
-        <v>504</v>
+        <v>625</v>
+      </c>
+      <c r="H53" t="s">
+        <v>571</v>
       </c>
       <c r="I53" t="s">
         <v>74</v>
       </c>
       <c r="J53" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
       <c r="K53" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>640</v>
+      </c>
+      <c r="L53" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>617</v>
+      </c>
+      <c r="C54" t="s">
+        <v>618</v>
+      </c>
+      <c r="D54" t="s">
+        <v>557</v>
       </c>
       <c r="E54" t="s">
         <v>25</v>
@@ -16960,44 +17289,59 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" s="41">
-        <v>118579.1</v>
+        <v>74</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>619</v>
       </c>
       <c r="C55" t="s">
-        <v>543</v>
+        <v>609</v>
+      </c>
+      <c r="D55" t="s">
+        <v>571</v>
       </c>
       <c r="E55" t="s">
         <v>77</v>
       </c>
       <c r="F55" s="41">
-        <v>1315392.8999999999</v>
+        <v>1455780500000</v>
       </c>
       <c r="G55" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="I55" t="s">
         <v>77</v>
       </c>
       <c r="J55" s="41">
-        <v>2169390.5</v>
+        <v>2527439400000</v>
       </c>
       <c r="K55" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>544</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>557</v>
+        <v>134</v>
+      </c>
+      <c r="F56" s="41">
+        <v>1734404000000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>636</v>
       </c>
       <c r="I56" t="s">
-        <v>569</v>
+        <v>134</v>
+      </c>
+      <c r="J56" s="41">
+        <v>2796804000000</v>
+      </c>
+      <c r="K56" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -17280,7 +17624,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickTop="1">
       <c r="A14" s="50" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B14" s="40">
         <f>MIN(B4:B13)</f>

--- a/Comparativa Algoritmos.xlsx
+++ b/Comparativa Algoritmos.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidadhuelva-my.sharepoint.com/personal/victormanuel_rodriguez607_alu_uhu_es/Documents/UHU/2020-2021/MBHB/Practicas/P1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidadhuelva-my.sharepoint.com/personal/victormanuel_rodriguez607_alu_uhu_es/Documents/UHU/2020-2021/MBHB/AlgoritmosTrayectoriaTSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="920" documentId="8_{D1DDB6C2-67B3-4B87-8F25-D69E6E94A16C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BABEC330-74AD-412F-A117-EA060BB38A3F}"/>
+  <xr:revisionPtr revIDLastSave="1191" documentId="8_{D1DDB6C2-67B3-4B87-8F25-D69E6E94A16C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D8A2696E-D416-4781-9A66-CCF077E1200D}"/>
   <bookViews>
-    <workbookView xWindow="23070" yWindow="3000" windowWidth="28800" windowHeight="15555" tabRatio="743" activeTab="4" xr2:uid="{E36AA127-7C1A-44A1-B2F9-CDA2DDAE02E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="743" activeTab="1" xr2:uid="{E36AA127-7C1A-44A1-B2F9-CDA2DDAE02E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparativa" sheetId="8" r:id="rId1"/>
-    <sheet name="Greedy" sheetId="1" r:id="rId2"/>
-    <sheet name="Aleatoria" sheetId="2" r:id="rId3"/>
-    <sheet name="BA Mejor" sheetId="3" r:id="rId4"/>
-    <sheet name="BA Primer Mejor" sheetId="4" r:id="rId5"/>
-    <sheet name="ES" sheetId="5" r:id="rId6"/>
-    <sheet name="BT" sheetId="6" r:id="rId7"/>
-    <sheet name="Plantilla" sheetId="7" r:id="rId8"/>
+    <sheet name="MultiArranque" sheetId="9" r:id="rId2"/>
+    <sheet name="Greedy" sheetId="1" r:id="rId3"/>
+    <sheet name="Aleatoria" sheetId="2" r:id="rId4"/>
+    <sheet name="BA Mejor" sheetId="3" r:id="rId5"/>
+    <sheet name="BA Primer Mejor" sheetId="4" r:id="rId6"/>
+    <sheet name="ES" sheetId="5" r:id="rId7"/>
+    <sheet name="BT" sheetId="6" r:id="rId8"/>
+    <sheet name="Plantilla" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="910">
   <si>
     <t>st70</t>
   </si>
@@ -2003,6 +2004,774 @@
   </si>
   <si>
     <t xml:space="preserve"> Desv: 0.816497</t>
+  </si>
+  <si>
+    <t>Métodos MultiArranque</t>
+  </si>
+  <si>
+    <t>GRASP</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>VNS</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>-------------------------------------------</t>
+  </si>
+  <si>
+    <t>Iteración       Coste   EVs</t>
+  </si>
+  <si>
+    <t>Semilla:                1934568</t>
+  </si>
+  <si>
+    <t>EV:                     2096250</t>
+  </si>
+  <si>
+    <t>EV:                     4687200</t>
+  </si>
+  <si>
+    <t>Mejor Solución Coste:</t>
+  </si>
+  <si>
+    <t>EV:</t>
+  </si>
+  <si>
+    <t>Semilla:</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución:</t>
+  </si>
+  <si>
+    <t>1)              1099    113505</t>
+  </si>
+  <si>
+    <t>2)              1011    77280</t>
+  </si>
+  <si>
+    <t>3)              960     36225</t>
+  </si>
+  <si>
+    <t>4)              960     4830</t>
+  </si>
+  <si>
+    <t>5)              956     41055</t>
+  </si>
+  <si>
+    <t>6)              956     26565</t>
+  </si>
+  <si>
+    <t>7)              937     84525</t>
+  </si>
+  <si>
+    <t>8)              937     28980</t>
+  </si>
+  <si>
+    <t>9)              937     74865</t>
+  </si>
+  <si>
+    <t>10)             911     74865</t>
+  </si>
+  <si>
+    <t>11)             911     33810</t>
+  </si>
+  <si>
+    <t>12)             911     45885</t>
+  </si>
+  <si>
+    <t>13)             911     65205</t>
+  </si>
+  <si>
+    <t>14)             911     72450</t>
+  </si>
+  <si>
+    <t>15)             911     74865</t>
+  </si>
+  <si>
+    <t>16)             911     72450</t>
+  </si>
+  <si>
+    <t>17)             911     72450</t>
+  </si>
+  <si>
+    <t>18)             911     94185</t>
+  </si>
+  <si>
+    <t>19)             911     99015</t>
+  </si>
+  <si>
+    <t>20)             911     106260</t>
+  </si>
+  <si>
+    <t>21)             911     103845</t>
+  </si>
+  <si>
+    <t>22)             911     94185</t>
+  </si>
+  <si>
+    <t>23)             911     106260</t>
+  </si>
+  <si>
+    <t>24)             911     91770</t>
+  </si>
+  <si>
+    <t>25)             911     113505</t>
+  </si>
+  <si>
+    <t>26)             911     113505</t>
+  </si>
+  <si>
+    <t>27)             911     113505</t>
+  </si>
+  <si>
+    <t>28)             911     113505</t>
+  </si>
+  <si>
+    <t>29)             911     113505</t>
+  </si>
+  <si>
+    <t>30)             911     113505</t>
+  </si>
+  <si>
+    <t>31)             911     113505</t>
+  </si>
+  <si>
+    <t>32)             911     113505</t>
+  </si>
+  <si>
+    <t>33)             911     113505</t>
+  </si>
+  <si>
+    <t>34)             911     113505</t>
+  </si>
+  <si>
+    <t>35)             911     113505</t>
+  </si>
+  <si>
+    <t>36)             911     113505</t>
+  </si>
+  <si>
+    <t>37)             911     113505</t>
+  </si>
+  <si>
+    <t>38)             911     113505</t>
+  </si>
+  <si>
+    <t>39)             911     113505</t>
+  </si>
+  <si>
+    <t>40)             911     113505</t>
+  </si>
+  <si>
+    <t>41)             911     113505</t>
+  </si>
+  <si>
+    <t>42)             911     113505</t>
+  </si>
+  <si>
+    <t>43)             911     113505</t>
+  </si>
+  <si>
+    <t>44)             911     113505</t>
+  </si>
+  <si>
+    <t>45)             911     113505</t>
+  </si>
+  <si>
+    <t>46)             911     113505</t>
+  </si>
+  <si>
+    <t>47)             911     113505</t>
+  </si>
+  <si>
+    <t>48)             911     113505</t>
+  </si>
+  <si>
+    <t>49)             911     113505</t>
+  </si>
+  <si>
+    <t>50)             911     113505</t>
+  </si>
+  <si>
+    <t>Mejor Solución Coste:   911</t>
+  </si>
+  <si>
+    <t>EV:                     4646461</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución:    5.747502</t>
+  </si>
+  <si>
+    <t>1)              23920   209625</t>
+  </si>
+  <si>
+    <t>2)              18901   209625</t>
+  </si>
+  <si>
+    <t>3)              16864   209625</t>
+  </si>
+  <si>
+    <t>4)              15482   209625</t>
+  </si>
+  <si>
+    <t>5)              15116   209625</t>
+  </si>
+  <si>
+    <t>6)              14115   209625</t>
+  </si>
+  <si>
+    <t>7)              13237   209625</t>
+  </si>
+  <si>
+    <t>8)              13237   209625</t>
+  </si>
+  <si>
+    <t>9)              13237   209625</t>
+  </si>
+  <si>
+    <t>10)             13237   209625</t>
+  </si>
+  <si>
+    <t>11)             13237   209625</t>
+  </si>
+  <si>
+    <t>12)             13237   209625</t>
+  </si>
+  <si>
+    <t>13)             13237   209625</t>
+  </si>
+  <si>
+    <t>14)             13237   209625</t>
+  </si>
+  <si>
+    <t>15)             13237   209625</t>
+  </si>
+  <si>
+    <t>16)             13237   209625</t>
+  </si>
+  <si>
+    <t>17)             13237   209625</t>
+  </si>
+  <si>
+    <t>18)             13237   209625</t>
+  </si>
+  <si>
+    <t>19)             13237   209625</t>
+  </si>
+  <si>
+    <t>20)             13237   209625</t>
+  </si>
+  <si>
+    <t>21)             13237   209625</t>
+  </si>
+  <si>
+    <t>22)             13237   209625</t>
+  </si>
+  <si>
+    <t>23)             13237   209625</t>
+  </si>
+  <si>
+    <t>24)             13237   209625</t>
+  </si>
+  <si>
+    <t>25)             13237   209625</t>
+  </si>
+  <si>
+    <t>26)             13237   209625</t>
+  </si>
+  <si>
+    <t>27)             13237   209625</t>
+  </si>
+  <si>
+    <t>28)             13237   209625</t>
+  </si>
+  <si>
+    <t>29)             13237   209625</t>
+  </si>
+  <si>
+    <t>30)             13237   209625</t>
+  </si>
+  <si>
+    <t>31)             13237   209625</t>
+  </si>
+  <si>
+    <t>32)             13237   209625</t>
+  </si>
+  <si>
+    <t>33)             13237   209625</t>
+  </si>
+  <si>
+    <t>34)             13237   209625</t>
+  </si>
+  <si>
+    <t>35)             13237   209625</t>
+  </si>
+  <si>
+    <t>36)             13237   209625</t>
+  </si>
+  <si>
+    <t>37)             13237   209625</t>
+  </si>
+  <si>
+    <t>38)             13237   209625</t>
+  </si>
+  <si>
+    <t>39)             13237   209625</t>
+  </si>
+  <si>
+    <t>40)             13237   209625</t>
+  </si>
+  <si>
+    <t>41)             13237   209625</t>
+  </si>
+  <si>
+    <t>42)             13237   209625</t>
+  </si>
+  <si>
+    <t>43)             13237   209625</t>
+  </si>
+  <si>
+    <t>44)             13237   209625</t>
+  </si>
+  <si>
+    <t>45)             13237   209625</t>
+  </si>
+  <si>
+    <t>46)             13237   209625</t>
+  </si>
+  <si>
+    <t>47)             13237   209625</t>
+  </si>
+  <si>
+    <t>48)             13237   209625</t>
+  </si>
+  <si>
+    <t>49)             13237   209625</t>
+  </si>
+  <si>
+    <t>50)             13237   209625</t>
+  </si>
+  <si>
+    <t>Mejor Solución Coste:   13237</t>
+  </si>
+  <si>
+    <t>EV:                     10481251</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución:    13.054003</t>
+  </si>
+  <si>
+    <t>1)              25158   468720</t>
+  </si>
+  <si>
+    <t>2)              21913   468720</t>
+  </si>
+  <si>
+    <t>3)              20614   468720</t>
+  </si>
+  <si>
+    <t>4)              19850   468720</t>
+  </si>
+  <si>
+    <t>5)              19207   468720</t>
+  </si>
+  <si>
+    <t>6)              19148   468720</t>
+  </si>
+  <si>
+    <t>7)              18312   468720</t>
+  </si>
+  <si>
+    <t>8)              16608   468720</t>
+  </si>
+  <si>
+    <t>9)              16608   468720</t>
+  </si>
+  <si>
+    <t>10)             16608   468720</t>
+  </si>
+  <si>
+    <t>11)             16608   468720</t>
+  </si>
+  <si>
+    <t>12)             16608   468720</t>
+  </si>
+  <si>
+    <t>13)             16608   468720</t>
+  </si>
+  <si>
+    <t>14)             16608   468720</t>
+  </si>
+  <si>
+    <t>15)             16608   468720</t>
+  </si>
+  <si>
+    <t>16)             16608   468720</t>
+  </si>
+  <si>
+    <t>17)             16608   468720</t>
+  </si>
+  <si>
+    <t>18)             16608   468720</t>
+  </si>
+  <si>
+    <t>19)             16608   468720</t>
+  </si>
+  <si>
+    <t>20)             16608   468720</t>
+  </si>
+  <si>
+    <t>21)             16608   468720</t>
+  </si>
+  <si>
+    <t>22)             16608   468720</t>
+  </si>
+  <si>
+    <t>23)             16608   468720</t>
+  </si>
+  <si>
+    <t>24)             16608   468720</t>
+  </si>
+  <si>
+    <t>25)             16608   468720</t>
+  </si>
+  <si>
+    <t>26)             16608   468720</t>
+  </si>
+  <si>
+    <t>27)             16608   468720</t>
+  </si>
+  <si>
+    <t>28)             16608   468720</t>
+  </si>
+  <si>
+    <t>29)             16608   468720</t>
+  </si>
+  <si>
+    <t>30)             16608   468720</t>
+  </si>
+  <si>
+    <t>31)             16608   468720</t>
+  </si>
+  <si>
+    <t>32)             16608   468720</t>
+  </si>
+  <si>
+    <t>33)             16608   468720</t>
+  </si>
+  <si>
+    <t>34)             16608   468720</t>
+  </si>
+  <si>
+    <t>35)             16608   468720</t>
+  </si>
+  <si>
+    <t>36)             16608   468720</t>
+  </si>
+  <si>
+    <t>37)             16608   468720</t>
+  </si>
+  <si>
+    <t>38)             16608   468720</t>
+  </si>
+  <si>
+    <t>39)             16608   468720</t>
+  </si>
+  <si>
+    <t>40)             16608   468720</t>
+  </si>
+  <si>
+    <t>41)             16608   468720</t>
+  </si>
+  <si>
+    <t>42)             16608   468720</t>
+  </si>
+  <si>
+    <t>43)             16608   468720</t>
+  </si>
+  <si>
+    <t>44)             16608   468720</t>
+  </si>
+  <si>
+    <t>45)             16608   468720</t>
+  </si>
+  <si>
+    <t>46)             16608   468720</t>
+  </si>
+  <si>
+    <t>47)             16608   468720</t>
+  </si>
+  <si>
+    <t>48)             16608   468720</t>
+  </si>
+  <si>
+    <t>49)             16608   468720</t>
+  </si>
+  <si>
+    <t>50)             16608   468720</t>
+  </si>
+  <si>
+    <t>Mejor Solución Coste:   16608</t>
+  </si>
+  <si>
+    <t>EV:                     23436001</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución:    30.038500</t>
+  </si>
+  <si>
+    <t>Mejor/Total</t>
+  </si>
+  <si>
+    <t>Semilla:                1476414</t>
+  </si>
+  <si>
+    <t>1)              1091    111090</t>
+  </si>
+  <si>
+    <t>2)              1091    106260</t>
+  </si>
+  <si>
+    <t>3)              998     101430</t>
+  </si>
+  <si>
+    <t>4)              912     113505</t>
+  </si>
+  <si>
+    <t>5)              912     113505</t>
+  </si>
+  <si>
+    <t>6)              912     86940</t>
+  </si>
+  <si>
+    <t>7)              912     96600</t>
+  </si>
+  <si>
+    <t>8)              908     113505</t>
+  </si>
+  <si>
+    <t>9)              908     113505</t>
+  </si>
+  <si>
+    <t>10)             908     113505</t>
+  </si>
+  <si>
+    <t>Mejor Solución Coste:   908</t>
+  </si>
+  <si>
+    <t>EV:                     1069845</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución:    1.819502</t>
+  </si>
+  <si>
+    <t>1)              15300   209625</t>
+  </si>
+  <si>
+    <t>2)              14147   209625</t>
+  </si>
+  <si>
+    <t>3)              14128   209625</t>
+  </si>
+  <si>
+    <t>4)              13936   209625</t>
+  </si>
+  <si>
+    <t>5)              12896   209625</t>
+  </si>
+  <si>
+    <t>6)              12896   209625</t>
+  </si>
+  <si>
+    <t>7)              12896   209625</t>
+  </si>
+  <si>
+    <t>8)              12896   209625</t>
+  </si>
+  <si>
+    <t>9)              12896   209625</t>
+  </si>
+  <si>
+    <t>10)             12896   209625</t>
+  </si>
+  <si>
+    <t>Mejor Solución Coste:   12896</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución:    4.614496</t>
+  </si>
+  <si>
+    <t>1)              11882   468720</t>
+  </si>
+  <si>
+    <t>2)              11531   468720</t>
+  </si>
+  <si>
+    <t>3)              11531   468720</t>
+  </si>
+  <si>
+    <t>4)              11531   468720</t>
+  </si>
+  <si>
+    <t>5)              11531   468720</t>
+  </si>
+  <si>
+    <t>6)              11531   468720</t>
+  </si>
+  <si>
+    <t>7)              11531   468720</t>
+  </si>
+  <si>
+    <t>8)              11531   468720</t>
+  </si>
+  <si>
+    <t>9)              11531   468720</t>
+  </si>
+  <si>
+    <t>10)             11531   468720</t>
+  </si>
+  <si>
+    <t>Mejor Solución Coste:   11531</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución:    19.115997</t>
+  </si>
+  <si>
+    <t>Iteración</t>
+  </si>
+  <si>
+    <t>EVs</t>
+  </si>
+  <si>
+    <t>11)</t>
+  </si>
+  <si>
+    <t>12)</t>
+  </si>
+  <si>
+    <t>13)</t>
+  </si>
+  <si>
+    <t>14)</t>
+  </si>
+  <si>
+    <t>15)</t>
+  </si>
+  <si>
+    <t>16)</t>
+  </si>
+  <si>
+    <t>17)</t>
+  </si>
+  <si>
+    <t>18)</t>
+  </si>
+  <si>
+    <t>19)</t>
+  </si>
+  <si>
+    <t>20)</t>
+  </si>
+  <si>
+    <t>21)</t>
+  </si>
+  <si>
+    <t>22)</t>
+  </si>
+  <si>
+    <t>23)</t>
+  </si>
+  <si>
+    <t>24)</t>
+  </si>
+  <si>
+    <t>25)</t>
+  </si>
+  <si>
+    <t>26)</t>
+  </si>
+  <si>
+    <t>27)</t>
+  </si>
+  <si>
+    <t>28)</t>
+  </si>
+  <si>
+    <t>29)</t>
+  </si>
+  <si>
+    <t>30)</t>
+  </si>
+  <si>
+    <t>31)</t>
+  </si>
+  <si>
+    <t>32)</t>
+  </si>
+  <si>
+    <t>33)</t>
+  </si>
+  <si>
+    <t>34)</t>
+  </si>
+  <si>
+    <t>35)</t>
+  </si>
+  <si>
+    <t>36)</t>
+  </si>
+  <si>
+    <t>37)</t>
+  </si>
+  <si>
+    <t>38)</t>
+  </si>
+  <si>
+    <t>39)</t>
+  </si>
+  <si>
+    <t>40)</t>
+  </si>
+  <si>
+    <t>41)</t>
+  </si>
+  <si>
+    <t>42)</t>
+  </si>
+  <si>
+    <t>43)</t>
+  </si>
+  <si>
+    <t>44)</t>
+  </si>
+  <si>
+    <t>45)</t>
+  </si>
+  <si>
+    <t>46)</t>
+  </si>
+  <si>
+    <t>47)</t>
+  </si>
+  <si>
+    <t>48)</t>
+  </si>
+  <si>
+    <t>49)</t>
+  </si>
+  <si>
+    <t>50)</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 13.534999</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecución: 29.821501</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2842,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2149,6 +2918,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -2638,14 +3413,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2933,11 +3709,51 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="14" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Énfasis2" xfId="1" builtinId="34"/>
     <cellStyle name="20% - Énfasis4" xfId="2" builtinId="42"/>
     <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
+    <cellStyle name="40% - Énfasis3" xfId="5" builtinId="39"/>
     <cellStyle name="40% - Énfasis6" xfId="4" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -6300,6 +7116,1516 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" b="1"/>
+              <a:t>Comparativa mejor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" b="1" baseline="0"/>
+              <a:t> coste</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MultiArranque!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(MultiArranque!$B$2,MultiArranque!$D$2,MultiArranque!$F$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>st70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ch130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a280</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(MultiArranque!$B$4,MultiArranque!$D$4,MultiArranque!$F$4)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7579</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>3157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D153-4686-916F-88CDD50F3165}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MultiArranque!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BA Mejor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(MultiArranque!$B$2,MultiArranque!$D$2,MultiArranque!$F$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>st70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ch130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a280</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(MultiArranque!$B$5,MultiArranque!$D$5,MultiArranque!$F$5)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26418.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D153-4686-916F-88CDD50F3165}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MultiArranque!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRASP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(MultiArranque!$B$2,MultiArranque!$D$2,MultiArranque!$F$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>st70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ch130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a280</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(MultiArranque!$B$6,MultiArranque!$D$6,MultiArranque!$F$6)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D153-4686-916F-88CDD50F3165}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MultiArranque!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ILS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(MultiArranque!$B$2,MultiArranque!$D$2,MultiArranque!$F$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>st70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ch130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a280</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(MultiArranque!$B$7,MultiArranque!$D$7,MultiArranque!$F$7)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D153-4686-916F-88CDD50F3165}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MultiArranque!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VNS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(MultiArranque!$B$2,MultiArranque!$D$2,MultiArranque!$F$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>st70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ch130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a280</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(MultiArranque!$B$8,MultiArranque!$D$8,MultiArranque!$F$8)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D153-4686-916F-88CDD50F3165}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="734035696"/>
+        <c:axId val="734031760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="734035696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734031760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="734031760"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Coste mejor solución</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734035696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" b="1"/>
+              <a:t>Evolución coste mejor solución / iteración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MultiArranque!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ILS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MultiArranque!$B$35:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ED04-40D9-8B84-54DE6CA827DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MultiArranque!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRASP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MultiArranque!$B$14:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ED04-40D9-8B84-54DE6CA827DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MultiArranque!$A$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VNS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MultiArranque!$B$95:$B$144</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-ED04-40D9-8B84-54DE6CA827DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="738676616"/>
+        <c:axId val="738676944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="738676616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Iteración</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738676944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="738676944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Coste mejor solución actual</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738676616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6381,6 +8707,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7971,6 +10377,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8080,6 +11505,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766A61FF-44CF-45BA-B390-FBB67667828D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF7F74F-3A5D-4871-8B5F-78CA6AA4DC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8455,8 +11957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615697B-4E27-4964-848A-C264CC4B4B6A}">
   <dimension ref="A2:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9231,6 +12733,5189 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D4B4B6-FEBA-463D-909C-3CEBC3C97E40}">
+  <dimension ref="A1:S148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD55" sqref="AD55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19.5" thickTop="1">
+      <c r="A1" s="86" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="15"/>
+      <c r="B2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="104"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="101">
+        <f>Comparativa!C6</f>
+        <v>830</v>
+      </c>
+      <c r="C4" s="101">
+        <v>1</v>
+      </c>
+      <c r="D4" s="111">
+        <f>(Greedy!$D$4)</f>
+        <v>7579</v>
+      </c>
+      <c r="E4" s="110">
+        <v>1</v>
+      </c>
+      <c r="F4" s="113">
+        <f>(Greedy!$F$4)</f>
+        <v>3157</v>
+      </c>
+      <c r="G4" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="101">
+        <f>('BA Mejor'!$B$14)</f>
+        <v>1056</v>
+      </c>
+      <c r="C5" s="101">
+        <f>('BA Mejor'!$C$15)</f>
+        <v>113505</v>
+      </c>
+      <c r="D5" s="111">
+        <f>('BA Mejor'!$D$14)</f>
+        <v>22094</v>
+      </c>
+      <c r="E5" s="111">
+        <f>('BA Mejor'!$E$15)</f>
+        <v>209625</v>
+      </c>
+      <c r="F5" s="106">
+        <f>('BA Mejor'!$F$15)</f>
+        <v>26418.5</v>
+      </c>
+      <c r="G5" s="106">
+        <f>('BA Mejor'!$G$15)</f>
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="B6" s="101">
+        <f>B24</f>
+        <v>908</v>
+      </c>
+      <c r="C6" s="101">
+        <f>C24</f>
+        <v>1069845</v>
+      </c>
+      <c r="D6" s="111">
+        <f>D24</f>
+        <v>12896</v>
+      </c>
+      <c r="E6" s="111">
+        <f>E24</f>
+        <v>2096250</v>
+      </c>
+      <c r="F6" s="106">
+        <f>F24</f>
+        <v>11531</v>
+      </c>
+      <c r="G6" s="106">
+        <f>G24</f>
+        <v>4687200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="B7" s="101">
+        <f>B85</f>
+        <v>911</v>
+      </c>
+      <c r="C7" s="101">
+        <f>C85</f>
+        <v>4646461</v>
+      </c>
+      <c r="D7" s="111">
+        <f>D85</f>
+        <v>13952</v>
+      </c>
+      <c r="E7" s="111">
+        <f>E85</f>
+        <v>10481251</v>
+      </c>
+      <c r="F7" s="106">
+        <f>F85</f>
+        <v>11065</v>
+      </c>
+      <c r="G7" s="106">
+        <f>G85</f>
+        <v>23436000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="B8" s="102">
+        <f>B145</f>
+        <v>910</v>
+      </c>
+      <c r="C8" s="102">
+        <f>C145</f>
+        <v>4076521</v>
+      </c>
+      <c r="D8" s="112">
+        <f>D145</f>
+        <v>11162</v>
+      </c>
+      <c r="E8" s="112">
+        <f>E145</f>
+        <v>10481251</v>
+      </c>
+      <c r="F8" s="107">
+        <f>F145</f>
+        <v>13473</v>
+      </c>
+      <c r="G8" s="107">
+        <f>G145</f>
+        <v>23436000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:15" ht="19.5" thickTop="1">
+      <c r="A11" s="86" t="s">
+        <v>655</v>
+      </c>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="I11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="90"/>
+      <c r="D12" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="109"/>
+      <c r="F12" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="104"/>
+      <c r="I12" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="101">
+        <v>1091</v>
+      </c>
+      <c r="C14" s="101">
+        <v>111090</v>
+      </c>
+      <c r="D14" s="111">
+        <v>15300</v>
+      </c>
+      <c r="E14" s="111">
+        <v>209625</v>
+      </c>
+      <c r="F14" s="106">
+        <v>11882</v>
+      </c>
+      <c r="G14" s="106">
+        <v>468720</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="101">
+        <v>1091</v>
+      </c>
+      <c r="C15" s="101">
+        <v>106260</v>
+      </c>
+      <c r="D15" s="111">
+        <v>14147</v>
+      </c>
+      <c r="E15" s="111">
+        <v>209625</v>
+      </c>
+      <c r="F15" s="106">
+        <v>11531</v>
+      </c>
+      <c r="G15" s="106">
+        <v>468720</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="101">
+        <v>998</v>
+      </c>
+      <c r="C16" s="101">
+        <v>101430</v>
+      </c>
+      <c r="D16" s="111">
+        <v>14128</v>
+      </c>
+      <c r="E16" s="111">
+        <v>209625</v>
+      </c>
+      <c r="F16" s="106">
+        <v>11531</v>
+      </c>
+      <c r="G16" s="106">
+        <v>468720</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>844</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="16">
+        <v>4</v>
+      </c>
+      <c r="B17" s="102">
+        <v>912</v>
+      </c>
+      <c r="C17" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D17" s="112">
+        <v>13936</v>
+      </c>
+      <c r="E17" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F17" s="107">
+        <v>11531</v>
+      </c>
+      <c r="G17" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="16">
+        <v>5</v>
+      </c>
+      <c r="B18" s="102">
+        <v>912</v>
+      </c>
+      <c r="C18" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D18" s="112">
+        <v>12896</v>
+      </c>
+      <c r="E18" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F18" s="107">
+        <v>11531</v>
+      </c>
+      <c r="G18" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="16">
+        <v>6</v>
+      </c>
+      <c r="B19" s="102">
+        <v>912</v>
+      </c>
+      <c r="C19" s="102">
+        <v>86940</v>
+      </c>
+      <c r="D19" s="112">
+        <v>12896</v>
+      </c>
+      <c r="E19" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F19" s="107">
+        <v>11531</v>
+      </c>
+      <c r="G19" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="16">
+        <v>7</v>
+      </c>
+      <c r="B20" s="102">
+        <v>912</v>
+      </c>
+      <c r="C20" s="102">
+        <v>96600</v>
+      </c>
+      <c r="D20" s="112">
+        <v>12896</v>
+      </c>
+      <c r="E20" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F20" s="107">
+        <v>11531</v>
+      </c>
+      <c r="G20" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="16">
+        <v>8</v>
+      </c>
+      <c r="B21" s="102">
+        <v>908</v>
+      </c>
+      <c r="C21" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D21" s="112">
+        <v>12896</v>
+      </c>
+      <c r="E21" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F21" s="107">
+        <v>11531</v>
+      </c>
+      <c r="G21" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="16">
+        <v>9</v>
+      </c>
+      <c r="B22" s="102">
+        <v>908</v>
+      </c>
+      <c r="C22" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D22" s="112">
+        <v>12896</v>
+      </c>
+      <c r="E22" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F22" s="107">
+        <v>11531</v>
+      </c>
+      <c r="G22" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>837</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="16">
+        <v>10</v>
+      </c>
+      <c r="B23" s="102">
+        <v>908</v>
+      </c>
+      <c r="C23" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D23" s="112">
+        <v>12896</v>
+      </c>
+      <c r="E23" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F23" s="107">
+        <v>11531</v>
+      </c>
+      <c r="G23" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="B24" s="102">
+        <f>MIN(B14:B23)</f>
+        <v>908</v>
+      </c>
+      <c r="C24" s="102">
+        <f>SUM(C14:C23)</f>
+        <v>1069845</v>
+      </c>
+      <c r="D24" s="112">
+        <f>MIN(D14:D23)</f>
+        <v>12896</v>
+      </c>
+      <c r="E24" s="112">
+        <f>SUM(E14:E23)</f>
+        <v>2096250</v>
+      </c>
+      <c r="F24" s="107">
+        <f>MIN(F14:F23)</f>
+        <v>11531</v>
+      </c>
+      <c r="G24" s="107">
+        <f>SUM(G14:G23)</f>
+        <v>4687200</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="I25" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="I26" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="I27" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="I28" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="28"/>
+      <c r="B29" s="41"/>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="28"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A31" s="28"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:15" ht="19.5" thickTop="1">
+      <c r="A32" s="86" t="s">
+        <v>656</v>
+      </c>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="I32" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="90"/>
+      <c r="D33" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="109"/>
+      <c r="F33" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="104"/>
+      <c r="I33" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="O33" s="28" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="O34" s="28" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="16">
+        <v>1</v>
+      </c>
+      <c r="B35" s="101">
+        <v>1099</v>
+      </c>
+      <c r="C35" s="101">
+        <v>113505</v>
+      </c>
+      <c r="D35" s="111">
+        <v>15388</v>
+      </c>
+      <c r="E35" s="111">
+        <v>209625</v>
+      </c>
+      <c r="F35" s="106">
+        <v>12556</v>
+      </c>
+      <c r="G35" s="106">
+        <v>468720</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="16">
+        <v>2</v>
+      </c>
+      <c r="B36" s="101">
+        <v>1011</v>
+      </c>
+      <c r="C36" s="101">
+        <v>77280</v>
+      </c>
+      <c r="D36" s="111">
+        <v>14615</v>
+      </c>
+      <c r="E36" s="111">
+        <v>209625</v>
+      </c>
+      <c r="F36" s="106">
+        <v>11969</v>
+      </c>
+      <c r="G36" s="106">
+        <v>468720</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="16">
+        <v>3</v>
+      </c>
+      <c r="B37" s="101">
+        <v>960</v>
+      </c>
+      <c r="C37" s="101">
+        <v>36225</v>
+      </c>
+      <c r="D37" s="111">
+        <v>14169</v>
+      </c>
+      <c r="E37" s="111">
+        <v>209625</v>
+      </c>
+      <c r="F37" s="106">
+        <v>11969</v>
+      </c>
+      <c r="G37" s="106">
+        <v>468720</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="O37" s="28" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="16">
+        <v>4</v>
+      </c>
+      <c r="B38" s="102">
+        <v>960</v>
+      </c>
+      <c r="C38" s="102">
+        <v>4830</v>
+      </c>
+      <c r="D38" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E38" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F38" s="107">
+        <v>11969</v>
+      </c>
+      <c r="G38" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="O38" s="28" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="16">
+        <v>5</v>
+      </c>
+      <c r="B39" s="102">
+        <v>956</v>
+      </c>
+      <c r="C39" s="102">
+        <v>41055</v>
+      </c>
+      <c r="D39" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E39" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F39" s="107">
+        <v>11969</v>
+      </c>
+      <c r="G39" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="O39" s="28" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="16">
+        <v>6</v>
+      </c>
+      <c r="B40" s="102">
+        <v>956</v>
+      </c>
+      <c r="C40" s="102">
+        <v>26565</v>
+      </c>
+      <c r="D40" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E40" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F40" s="107">
+        <v>11969</v>
+      </c>
+      <c r="G40" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="16">
+        <v>7</v>
+      </c>
+      <c r="B41" s="102">
+        <v>937</v>
+      </c>
+      <c r="C41" s="102">
+        <v>84525</v>
+      </c>
+      <c r="D41" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E41" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F41" s="107">
+        <v>11969</v>
+      </c>
+      <c r="G41" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="O41" s="28" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="16">
+        <v>8</v>
+      </c>
+      <c r="B42" s="102">
+        <v>937</v>
+      </c>
+      <c r="C42" s="102">
+        <v>28980</v>
+      </c>
+      <c r="D42" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E42" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F42" s="107">
+        <v>11886</v>
+      </c>
+      <c r="G42" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="O42" s="28" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="16">
+        <v>9</v>
+      </c>
+      <c r="B43" s="102">
+        <v>937</v>
+      </c>
+      <c r="C43" s="102">
+        <v>74865</v>
+      </c>
+      <c r="D43" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E43" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F43" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G43" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="L43" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="O43" s="28" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="16">
+        <v>10</v>
+      </c>
+      <c r="B44" s="102">
+        <v>911</v>
+      </c>
+      <c r="C44" s="102">
+        <v>74865</v>
+      </c>
+      <c r="D44" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E44" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F44" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G44" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="O44" s="28" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="16">
+        <v>11</v>
+      </c>
+      <c r="B45" s="102">
+        <v>911</v>
+      </c>
+      <c r="C45" s="102">
+        <v>33810</v>
+      </c>
+      <c r="D45" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E45" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F45" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G45" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="O45" s="28" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="16">
+        <v>12</v>
+      </c>
+      <c r="B46" s="102">
+        <v>911</v>
+      </c>
+      <c r="C46" s="102">
+        <v>45885</v>
+      </c>
+      <c r="D46" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E46" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F46" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G46" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="O46" s="28" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="16">
+        <v>13</v>
+      </c>
+      <c r="B47" s="102">
+        <v>911</v>
+      </c>
+      <c r="C47" s="102">
+        <v>65205</v>
+      </c>
+      <c r="D47" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E47" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F47" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G47" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="L47" s="28" t="s">
+        <v>733</v>
+      </c>
+      <c r="O47" s="28" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="16">
+        <v>14</v>
+      </c>
+      <c r="B48" s="102">
+        <v>911</v>
+      </c>
+      <c r="C48" s="102">
+        <v>72450</v>
+      </c>
+      <c r="D48" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E48" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F48" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G48" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="O48" s="28" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="16">
+        <v>15</v>
+      </c>
+      <c r="B49" s="102">
+        <v>911</v>
+      </c>
+      <c r="C49" s="102">
+        <v>74865</v>
+      </c>
+      <c r="D49" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E49" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F49" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G49" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="L49" s="28" t="s">
+        <v>735</v>
+      </c>
+      <c r="O49" s="28" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="16">
+        <v>16</v>
+      </c>
+      <c r="B50" s="102">
+        <v>911</v>
+      </c>
+      <c r="C50" s="102">
+        <v>72450</v>
+      </c>
+      <c r="D50" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E50" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F50" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G50" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="L50" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="O50" s="28" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="16">
+        <v>17</v>
+      </c>
+      <c r="B51" s="102">
+        <v>911</v>
+      </c>
+      <c r="C51" s="102">
+        <v>72450</v>
+      </c>
+      <c r="D51" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E51" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F51" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G51" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="L51" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="O51" s="28" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="16">
+        <v>18</v>
+      </c>
+      <c r="B52" s="102">
+        <v>911</v>
+      </c>
+      <c r="C52" s="102">
+        <v>94185</v>
+      </c>
+      <c r="D52" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E52" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F52" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G52" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="L52" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="O52" s="28" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="16">
+        <v>19</v>
+      </c>
+      <c r="B53" s="102">
+        <v>911</v>
+      </c>
+      <c r="C53" s="102">
+        <v>99015</v>
+      </c>
+      <c r="D53" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E53" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F53" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G53" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="L53" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="O53" s="28" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="16">
+        <v>20</v>
+      </c>
+      <c r="B54" s="102">
+        <v>911</v>
+      </c>
+      <c r="C54" s="102">
+        <v>106260</v>
+      </c>
+      <c r="D54" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E54" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F54" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G54" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="L54" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="O54" s="28" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="16">
+        <v>21</v>
+      </c>
+      <c r="B55" s="102">
+        <v>911</v>
+      </c>
+      <c r="C55" s="102">
+        <v>103845</v>
+      </c>
+      <c r="D55" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E55" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F55" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G55" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="L55" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="O55" s="28" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="16">
+        <v>22</v>
+      </c>
+      <c r="B56" s="102">
+        <v>911</v>
+      </c>
+      <c r="C56" s="102">
+        <v>94185</v>
+      </c>
+      <c r="D56" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E56" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F56" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G56" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="L56" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="O56" s="28" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="16">
+        <v>23</v>
+      </c>
+      <c r="B57" s="102">
+        <v>911</v>
+      </c>
+      <c r="C57" s="102">
+        <v>106260</v>
+      </c>
+      <c r="D57" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E57" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F57" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G57" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="L57" s="28" t="s">
+        <v>743</v>
+      </c>
+      <c r="O57" s="28" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="16">
+        <v>24</v>
+      </c>
+      <c r="B58" s="102">
+        <v>911</v>
+      </c>
+      <c r="C58" s="102">
+        <v>91770</v>
+      </c>
+      <c r="D58" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E58" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F58" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G58" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="L58" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="O58" s="28" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="16">
+        <v>25</v>
+      </c>
+      <c r="B59" s="102">
+        <v>911</v>
+      </c>
+      <c r="C59" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D59" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E59" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F59" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G59" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="L59" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="O59" s="28" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="16">
+        <v>26</v>
+      </c>
+      <c r="B60" s="102">
+        <v>911</v>
+      </c>
+      <c r="C60" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D60" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E60" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F60" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G60" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="L60" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="O60" s="28" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="16">
+        <v>27</v>
+      </c>
+      <c r="B61" s="102">
+        <v>911</v>
+      </c>
+      <c r="C61" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D61" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E61" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F61" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G61" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="L61" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="O61" s="28" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="16">
+        <v>28</v>
+      </c>
+      <c r="B62" s="102">
+        <v>911</v>
+      </c>
+      <c r="C62" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D62" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E62" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F62" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G62" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="L62" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="O62" s="28" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="16">
+        <v>29</v>
+      </c>
+      <c r="B63" s="102">
+        <v>911</v>
+      </c>
+      <c r="C63" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D63" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E63" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F63" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G63" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="L63" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="O63" s="28" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="16">
+        <v>30</v>
+      </c>
+      <c r="B64" s="102">
+        <v>911</v>
+      </c>
+      <c r="C64" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D64" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E64" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F64" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G64" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="L64" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="O64" s="28" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="16">
+        <v>31</v>
+      </c>
+      <c r="B65" s="102">
+        <v>911</v>
+      </c>
+      <c r="C65" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D65" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E65" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F65" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G65" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="L65" s="28" t="s">
+        <v>751</v>
+      </c>
+      <c r="O65" s="28" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="16">
+        <v>32</v>
+      </c>
+      <c r="B66" s="102">
+        <v>911</v>
+      </c>
+      <c r="C66" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D66" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E66" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F66" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G66" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="L66" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="O66" s="28" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="16">
+        <v>33</v>
+      </c>
+      <c r="B67" s="102">
+        <v>911</v>
+      </c>
+      <c r="C67" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D67" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E67" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F67" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G67" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="L67" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="O67" s="28" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="16">
+        <v>34</v>
+      </c>
+      <c r="B68" s="102">
+        <v>911</v>
+      </c>
+      <c r="C68" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D68" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E68" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F68" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G68" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="L68" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="O68" s="28" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="16">
+        <v>35</v>
+      </c>
+      <c r="B69" s="102">
+        <v>911</v>
+      </c>
+      <c r="C69" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D69" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E69" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F69" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G69" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="L69" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="O69" s="28" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="16">
+        <v>36</v>
+      </c>
+      <c r="B70" s="102">
+        <v>911</v>
+      </c>
+      <c r="C70" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D70" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E70" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F70" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G70" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="L70" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="O70" s="28" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="16">
+        <v>37</v>
+      </c>
+      <c r="B71" s="102">
+        <v>911</v>
+      </c>
+      <c r="C71" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D71" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E71" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F71" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G71" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="L71" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="O71" s="28" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="16">
+        <v>38</v>
+      </c>
+      <c r="B72" s="102">
+        <v>911</v>
+      </c>
+      <c r="C72" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D72" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E72" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F72" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G72" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="L72" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="O72" s="28" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="16">
+        <v>39</v>
+      </c>
+      <c r="B73" s="102">
+        <v>911</v>
+      </c>
+      <c r="C73" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D73" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E73" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F73" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G73" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="L73" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="O73" s="28" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="16">
+        <v>40</v>
+      </c>
+      <c r="B74" s="102">
+        <v>911</v>
+      </c>
+      <c r="C74" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D74" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E74" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F74" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G74" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="L74" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="O74" s="28" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="16">
+        <v>41</v>
+      </c>
+      <c r="B75" s="102">
+        <v>911</v>
+      </c>
+      <c r="C75" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D75" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E75" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F75" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G75" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="L75" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="O75" s="28" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="16">
+        <v>42</v>
+      </c>
+      <c r="B76" s="102">
+        <v>911</v>
+      </c>
+      <c r="C76" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D76" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E76" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F76" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G76" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="L76" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="O76" s="28" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="16">
+        <v>43</v>
+      </c>
+      <c r="B77" s="102">
+        <v>911</v>
+      </c>
+      <c r="C77" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D77" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E77" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F77" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G77" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="L77" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="O77" s="28" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="16">
+        <v>44</v>
+      </c>
+      <c r="B78" s="102">
+        <v>911</v>
+      </c>
+      <c r="C78" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D78" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E78" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F78" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G78" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="L78" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="O78" s="28" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="16">
+        <v>45</v>
+      </c>
+      <c r="B79" s="102">
+        <v>911</v>
+      </c>
+      <c r="C79" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D79" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E79" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F79" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G79" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="L79" s="28" t="s">
+        <v>765</v>
+      </c>
+      <c r="O79" s="28" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="16">
+        <v>46</v>
+      </c>
+      <c r="B80" s="102">
+        <v>911</v>
+      </c>
+      <c r="C80" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D80" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E80" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F80" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G80" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="L80" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="O80" s="28" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="16">
+        <v>47</v>
+      </c>
+      <c r="B81" s="102">
+        <v>911</v>
+      </c>
+      <c r="C81" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D81" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E81" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F81" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G81" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="L81" s="28" t="s">
+        <v>767</v>
+      </c>
+      <c r="O81" s="28" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="16">
+        <v>48</v>
+      </c>
+      <c r="B82" s="102">
+        <v>911</v>
+      </c>
+      <c r="C82" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D82" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E82" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F82" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G82" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="L82" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="O82" s="28" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="16">
+        <v>49</v>
+      </c>
+      <c r="B83" s="102">
+        <v>911</v>
+      </c>
+      <c r="C83" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D83" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E83" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F83" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G83" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="L83" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="O83" s="28" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="16">
+        <v>50</v>
+      </c>
+      <c r="B84" s="102">
+        <v>911</v>
+      </c>
+      <c r="C84" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D84" s="112">
+        <v>13952</v>
+      </c>
+      <c r="E84" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F84" s="107">
+        <v>11065</v>
+      </c>
+      <c r="G84" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="L84" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="O84" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="B85" s="102">
+        <f>MIN(B35:B84)</f>
+        <v>911</v>
+      </c>
+      <c r="C85" s="102">
+        <f>SUM(C35:C84)+1</f>
+        <v>4646461</v>
+      </c>
+      <c r="D85" s="112">
+        <f>MIN(D35:D84)</f>
+        <v>13952</v>
+      </c>
+      <c r="E85" s="112">
+        <f>SUM(E35:E84)+1</f>
+        <v>10481251</v>
+      </c>
+      <c r="F85" s="107">
+        <f>MIN(F35:F84)</f>
+        <v>11065</v>
+      </c>
+      <c r="G85" s="107">
+        <f>SUM(G35:G84)</f>
+        <v>23436000</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="I86" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="L86" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="O86" s="28" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="I87" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="L87" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="O87" s="28" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="I88" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="L88" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="O88" s="28" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="I89" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="L89" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="O89" s="28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:19" ht="19.5" thickTop="1">
+      <c r="A92" s="86" t="s">
+        <v>657</v>
+      </c>
+      <c r="B92" s="87"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="87"/>
+      <c r="E92" s="87"/>
+      <c r="F92" s="87"/>
+      <c r="G92" s="87"/>
+      <c r="I92" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L92" s="28"/>
+      <c r="M92" t="s">
+        <v>15</v>
+      </c>
+      <c r="O92" s="28"/>
+      <c r="Q92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="15"/>
+      <c r="B93" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="90"/>
+      <c r="D93" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="109"/>
+      <c r="F93" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="104"/>
+      <c r="I93" s="28" t="s">
+        <v>866</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>867</v>
+      </c>
+      <c r="L93" s="28"/>
+      <c r="M93" t="s">
+        <v>866</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1</v>
+      </c>
+      <c r="O93" s="28" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>866</v>
+      </c>
+      <c r="R93" t="s">
+        <v>1</v>
+      </c>
+      <c r="S93" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="15"/>
+      <c r="B94" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="L94" s="28"/>
+      <c r="M94" t="s">
+        <v>659</v>
+      </c>
+      <c r="O94" s="28"/>
+      <c r="Q94" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="16">
+        <v>1</v>
+      </c>
+      <c r="B95" s="101">
+        <v>1209</v>
+      </c>
+      <c r="C95" s="101">
+        <v>113505</v>
+      </c>
+      <c r="D95" s="111">
+        <v>24452</v>
+      </c>
+      <c r="E95" s="111">
+        <v>209625</v>
+      </c>
+      <c r="F95" s="106">
+        <v>24919</v>
+      </c>
+      <c r="G95" s="106">
+        <v>468720</v>
+      </c>
+      <c r="I95" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J95" s="28">
+        <v>1209</v>
+      </c>
+      <c r="K95">
+        <v>113505</v>
+      </c>
+      <c r="M95" t="s">
+        <v>47</v>
+      </c>
+      <c r="N95" s="28">
+        <v>24452</v>
+      </c>
+      <c r="O95">
+        <v>209625</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>47</v>
+      </c>
+      <c r="R95">
+        <v>24919</v>
+      </c>
+      <c r="S95">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="16">
+        <v>2</v>
+      </c>
+      <c r="B96" s="101">
+        <v>1126</v>
+      </c>
+      <c r="C96" s="101">
+        <v>45885</v>
+      </c>
+      <c r="D96" s="111">
+        <v>17841</v>
+      </c>
+      <c r="E96" s="111">
+        <v>209625</v>
+      </c>
+      <c r="F96" s="106">
+        <v>21106</v>
+      </c>
+      <c r="G96" s="106">
+        <v>468720</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J96" s="28">
+        <v>1126</v>
+      </c>
+      <c r="K96">
+        <v>45885</v>
+      </c>
+      <c r="M96" t="s">
+        <v>50</v>
+      </c>
+      <c r="N96" s="28">
+        <v>17841</v>
+      </c>
+      <c r="O96">
+        <v>209625</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>50</v>
+      </c>
+      <c r="R96">
+        <v>21106</v>
+      </c>
+      <c r="S96">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="16">
+        <v>3</v>
+      </c>
+      <c r="B97" s="101">
+        <v>1108</v>
+      </c>
+      <c r="C97" s="101">
+        <v>28980</v>
+      </c>
+      <c r="D97" s="111">
+        <v>14984</v>
+      </c>
+      <c r="E97" s="111">
+        <v>209625</v>
+      </c>
+      <c r="F97" s="106">
+        <v>17961</v>
+      </c>
+      <c r="G97" s="106">
+        <v>468720</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J97" s="28">
+        <v>1108</v>
+      </c>
+      <c r="K97">
+        <v>28980</v>
+      </c>
+      <c r="M97" t="s">
+        <v>53</v>
+      </c>
+      <c r="N97" s="28">
+        <v>14984</v>
+      </c>
+      <c r="O97">
+        <v>209625</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>53</v>
+      </c>
+      <c r="R97">
+        <v>17961</v>
+      </c>
+      <c r="S97">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="16">
+        <v>4</v>
+      </c>
+      <c r="B98" s="102">
+        <v>1036</v>
+      </c>
+      <c r="C98" s="102">
+        <v>53130</v>
+      </c>
+      <c r="D98" s="112">
+        <v>12886</v>
+      </c>
+      <c r="E98" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F98" s="107">
+        <v>16560</v>
+      </c>
+      <c r="G98" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J98" s="28">
+        <v>1036</v>
+      </c>
+      <c r="K98">
+        <v>53130</v>
+      </c>
+      <c r="M98" t="s">
+        <v>56</v>
+      </c>
+      <c r="N98" s="28">
+        <v>12886</v>
+      </c>
+      <c r="O98">
+        <v>209625</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>56</v>
+      </c>
+      <c r="R98">
+        <v>16560</v>
+      </c>
+      <c r="S98">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="16">
+        <v>5</v>
+      </c>
+      <c r="B99" s="102">
+        <v>1036</v>
+      </c>
+      <c r="C99" s="102">
+        <v>16905</v>
+      </c>
+      <c r="D99" s="112">
+        <v>12886</v>
+      </c>
+      <c r="E99" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F99" s="107">
+        <v>15683</v>
+      </c>
+      <c r="G99" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J99" s="28">
+        <v>1036</v>
+      </c>
+      <c r="K99">
+        <v>16905</v>
+      </c>
+      <c r="M99" t="s">
+        <v>59</v>
+      </c>
+      <c r="N99" s="28">
+        <v>12886</v>
+      </c>
+      <c r="O99">
+        <v>209625</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>59</v>
+      </c>
+      <c r="R99">
+        <v>15683</v>
+      </c>
+      <c r="S99">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="16">
+        <v>6</v>
+      </c>
+      <c r="B100" s="102">
+        <v>1027</v>
+      </c>
+      <c r="C100" s="102">
+        <v>36225</v>
+      </c>
+      <c r="D100" s="112">
+        <v>12398</v>
+      </c>
+      <c r="E100" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F100" s="107">
+        <v>15043</v>
+      </c>
+      <c r="G100" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J100" s="28">
+        <v>1027</v>
+      </c>
+      <c r="K100">
+        <v>36225</v>
+      </c>
+      <c r="M100" t="s">
+        <v>62</v>
+      </c>
+      <c r="N100" s="28">
+        <v>12398</v>
+      </c>
+      <c r="O100">
+        <v>209625</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>62</v>
+      </c>
+      <c r="R100">
+        <v>15043</v>
+      </c>
+      <c r="S100">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="16">
+        <v>7</v>
+      </c>
+      <c r="B101" s="102">
+        <v>1027</v>
+      </c>
+      <c r="C101" s="102">
+        <v>4830</v>
+      </c>
+      <c r="D101" s="112">
+        <v>12016</v>
+      </c>
+      <c r="E101" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F101" s="107">
+        <v>14402</v>
+      </c>
+      <c r="G101" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J101" s="28">
+        <v>1027</v>
+      </c>
+      <c r="K101">
+        <v>4830</v>
+      </c>
+      <c r="M101" t="s">
+        <v>65</v>
+      </c>
+      <c r="N101" s="28">
+        <v>12016</v>
+      </c>
+      <c r="O101">
+        <v>209625</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>65</v>
+      </c>
+      <c r="R101">
+        <v>14402</v>
+      </c>
+      <c r="S101">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="16">
+        <v>8</v>
+      </c>
+      <c r="B102" s="102">
+        <v>1027</v>
+      </c>
+      <c r="C102" s="102">
+        <v>19320</v>
+      </c>
+      <c r="D102" s="112">
+        <v>11473</v>
+      </c>
+      <c r="E102" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F102" s="107">
+        <v>14341</v>
+      </c>
+      <c r="G102" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J102" s="28">
+        <v>1027</v>
+      </c>
+      <c r="K102">
+        <v>19320</v>
+      </c>
+      <c r="M102" t="s">
+        <v>68</v>
+      </c>
+      <c r="N102" s="28">
+        <v>11473</v>
+      </c>
+      <c r="O102">
+        <v>209625</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>68</v>
+      </c>
+      <c r="R102">
+        <v>14341</v>
+      </c>
+      <c r="S102">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="16">
+        <v>9</v>
+      </c>
+      <c r="B103" s="102">
+        <v>1027</v>
+      </c>
+      <c r="C103" s="102">
+        <v>41055</v>
+      </c>
+      <c r="D103" s="112">
+        <v>11347</v>
+      </c>
+      <c r="E103" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F103" s="107">
+        <v>14263</v>
+      </c>
+      <c r="G103" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J103" s="28">
+        <v>1027</v>
+      </c>
+      <c r="K103">
+        <v>41055</v>
+      </c>
+      <c r="M103" t="s">
+        <v>71</v>
+      </c>
+      <c r="N103" s="28">
+        <v>11347</v>
+      </c>
+      <c r="O103">
+        <v>209625</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>71</v>
+      </c>
+      <c r="R103">
+        <v>14263</v>
+      </c>
+      <c r="S103">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="16">
+        <v>10</v>
+      </c>
+      <c r="B104" s="102">
+        <v>1027</v>
+      </c>
+      <c r="C104" s="102">
+        <v>53130</v>
+      </c>
+      <c r="D104" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E104" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F104" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G104" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I104" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J104" s="28">
+        <v>1027</v>
+      </c>
+      <c r="K104">
+        <v>53130</v>
+      </c>
+      <c r="M104" t="s">
+        <v>74</v>
+      </c>
+      <c r="N104" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O104">
+        <v>209625</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>74</v>
+      </c>
+      <c r="R104">
+        <v>13473</v>
+      </c>
+      <c r="S104">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="16">
+        <v>11</v>
+      </c>
+      <c r="B105" s="102">
+        <v>1027</v>
+      </c>
+      <c r="C105" s="102">
+        <v>74865</v>
+      </c>
+      <c r="D105" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E105" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F105" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G105" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I105" s="28" t="s">
+        <v>868</v>
+      </c>
+      <c r="J105" s="28">
+        <v>1027</v>
+      </c>
+      <c r="K105">
+        <v>74865</v>
+      </c>
+      <c r="M105" t="s">
+        <v>868</v>
+      </c>
+      <c r="N105" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O105">
+        <v>209625</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>868</v>
+      </c>
+      <c r="R105">
+        <v>13473</v>
+      </c>
+      <c r="S105">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" s="16">
+        <v>12</v>
+      </c>
+      <c r="B106" s="102">
+        <v>1027</v>
+      </c>
+      <c r="C106" s="102">
+        <v>74865</v>
+      </c>
+      <c r="D106" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E106" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F106" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G106" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I106" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="J106" s="28">
+        <v>1027</v>
+      </c>
+      <c r="K106">
+        <v>74865</v>
+      </c>
+      <c r="M106" t="s">
+        <v>869</v>
+      </c>
+      <c r="N106" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O106">
+        <v>209625</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>869</v>
+      </c>
+      <c r="R106">
+        <v>13473</v>
+      </c>
+      <c r="S106">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="16">
+        <v>13</v>
+      </c>
+      <c r="B107" s="102">
+        <v>935</v>
+      </c>
+      <c r="C107" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D107" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E107" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F107" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G107" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I107" s="28" t="s">
+        <v>870</v>
+      </c>
+      <c r="J107" s="28">
+        <v>935</v>
+      </c>
+      <c r="K107">
+        <v>113505</v>
+      </c>
+      <c r="M107" t="s">
+        <v>870</v>
+      </c>
+      <c r="N107" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O107">
+        <v>209625</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>870</v>
+      </c>
+      <c r="R107">
+        <v>13473</v>
+      </c>
+      <c r="S107">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="16">
+        <v>14</v>
+      </c>
+      <c r="B108" s="102">
+        <v>912</v>
+      </c>
+      <c r="C108" s="102">
+        <v>21735</v>
+      </c>
+      <c r="D108" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E108" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F108" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G108" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>871</v>
+      </c>
+      <c r="J108" s="28">
+        <v>912</v>
+      </c>
+      <c r="K108">
+        <v>21735</v>
+      </c>
+      <c r="M108" t="s">
+        <v>871</v>
+      </c>
+      <c r="N108" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O108">
+        <v>209625</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>871</v>
+      </c>
+      <c r="R108">
+        <v>13473</v>
+      </c>
+      <c r="S108">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="16">
+        <v>15</v>
+      </c>
+      <c r="B109" s="102">
+        <v>912</v>
+      </c>
+      <c r="C109" s="102">
+        <v>12075</v>
+      </c>
+      <c r="D109" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E109" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F109" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G109" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>872</v>
+      </c>
+      <c r="J109" s="28">
+        <v>912</v>
+      </c>
+      <c r="K109">
+        <v>12075</v>
+      </c>
+      <c r="M109" t="s">
+        <v>872</v>
+      </c>
+      <c r="N109" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O109">
+        <v>209625</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>872</v>
+      </c>
+      <c r="R109">
+        <v>13473</v>
+      </c>
+      <c r="S109">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="16">
+        <v>16</v>
+      </c>
+      <c r="B110" s="102">
+        <v>912</v>
+      </c>
+      <c r="C110" s="102">
+        <v>48300</v>
+      </c>
+      <c r="D110" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E110" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F110" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G110" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I110" s="28" t="s">
+        <v>873</v>
+      </c>
+      <c r="J110" s="28">
+        <v>912</v>
+      </c>
+      <c r="K110">
+        <v>48300</v>
+      </c>
+      <c r="M110" t="s">
+        <v>873</v>
+      </c>
+      <c r="N110" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O110">
+        <v>209625</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>873</v>
+      </c>
+      <c r="R110">
+        <v>13473</v>
+      </c>
+      <c r="S110">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="16">
+        <v>17</v>
+      </c>
+      <c r="B111" s="102">
+        <v>912</v>
+      </c>
+      <c r="C111" s="102">
+        <v>74865</v>
+      </c>
+      <c r="D111" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E111" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F111" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G111" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I111" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="J111" s="28">
+        <v>912</v>
+      </c>
+      <c r="K111">
+        <v>74865</v>
+      </c>
+      <c r="M111" t="s">
+        <v>874</v>
+      </c>
+      <c r="N111" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O111">
+        <v>209625</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>874</v>
+      </c>
+      <c r="R111">
+        <v>13473</v>
+      </c>
+      <c r="S111">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="16">
+        <v>18</v>
+      </c>
+      <c r="B112" s="102">
+        <v>910</v>
+      </c>
+      <c r="C112" s="102">
+        <v>82110</v>
+      </c>
+      <c r="D112" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E112" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F112" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G112" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I112" s="28" t="s">
+        <v>875</v>
+      </c>
+      <c r="J112" s="28">
+        <v>910</v>
+      </c>
+      <c r="K112">
+        <v>82110</v>
+      </c>
+      <c r="M112" t="s">
+        <v>875</v>
+      </c>
+      <c r="N112" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O112">
+        <v>209625</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>875</v>
+      </c>
+      <c r="R112">
+        <v>13473</v>
+      </c>
+      <c r="S112">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="16">
+        <v>19</v>
+      </c>
+      <c r="B113" s="102">
+        <v>910</v>
+      </c>
+      <c r="C113" s="102">
+        <v>9660</v>
+      </c>
+      <c r="D113" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E113" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F113" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G113" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I113" s="28" t="s">
+        <v>876</v>
+      </c>
+      <c r="J113" s="28">
+        <v>910</v>
+      </c>
+      <c r="K113">
+        <v>9660</v>
+      </c>
+      <c r="M113" t="s">
+        <v>876</v>
+      </c>
+      <c r="N113" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O113">
+        <v>209625</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>876</v>
+      </c>
+      <c r="R113">
+        <v>13473</v>
+      </c>
+      <c r="S113">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="16">
+        <v>20</v>
+      </c>
+      <c r="B114" s="102">
+        <v>910</v>
+      </c>
+      <c r="C114" s="102">
+        <v>21735</v>
+      </c>
+      <c r="D114" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E114" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F114" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G114" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I114" s="28" t="s">
+        <v>877</v>
+      </c>
+      <c r="J114" s="28">
+        <v>910</v>
+      </c>
+      <c r="K114">
+        <v>21735</v>
+      </c>
+      <c r="M114" t="s">
+        <v>877</v>
+      </c>
+      <c r="N114" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O114">
+        <v>209625</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>877</v>
+      </c>
+      <c r="R114">
+        <v>13473</v>
+      </c>
+      <c r="S114">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="16">
+        <v>21</v>
+      </c>
+      <c r="B115" s="102">
+        <v>910</v>
+      </c>
+      <c r="C115" s="102">
+        <v>45885</v>
+      </c>
+      <c r="D115" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E115" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F115" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G115" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I115" s="28" t="s">
+        <v>878</v>
+      </c>
+      <c r="J115" s="28">
+        <v>910</v>
+      </c>
+      <c r="K115">
+        <v>45885</v>
+      </c>
+      <c r="M115" t="s">
+        <v>878</v>
+      </c>
+      <c r="N115" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O115">
+        <v>209625</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>878</v>
+      </c>
+      <c r="R115">
+        <v>13473</v>
+      </c>
+      <c r="S115">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="16">
+        <v>22</v>
+      </c>
+      <c r="B116" s="102">
+        <v>910</v>
+      </c>
+      <c r="C116" s="102">
+        <v>57960</v>
+      </c>
+      <c r="D116" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E116" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F116" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G116" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I116" s="28" t="s">
+        <v>879</v>
+      </c>
+      <c r="J116" s="28">
+        <v>910</v>
+      </c>
+      <c r="K116">
+        <v>57960</v>
+      </c>
+      <c r="M116" t="s">
+        <v>879</v>
+      </c>
+      <c r="N116" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O116">
+        <v>209625</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>879</v>
+      </c>
+      <c r="R116">
+        <v>13473</v>
+      </c>
+      <c r="S116">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="16">
+        <v>23</v>
+      </c>
+      <c r="B117" s="102">
+        <v>910</v>
+      </c>
+      <c r="C117" s="102">
+        <v>60375</v>
+      </c>
+      <c r="D117" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E117" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F117" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G117" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I117" s="28" t="s">
+        <v>880</v>
+      </c>
+      <c r="J117" s="28">
+        <v>910</v>
+      </c>
+      <c r="K117">
+        <v>60375</v>
+      </c>
+      <c r="M117" t="s">
+        <v>880</v>
+      </c>
+      <c r="N117" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O117">
+        <v>209625</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>880</v>
+      </c>
+      <c r="R117">
+        <v>13473</v>
+      </c>
+      <c r="S117">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="16">
+        <v>24</v>
+      </c>
+      <c r="B118" s="102">
+        <v>910</v>
+      </c>
+      <c r="C118" s="102">
+        <v>72450</v>
+      </c>
+      <c r="D118" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E118" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F118" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G118" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I118" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="J118" s="28">
+        <v>910</v>
+      </c>
+      <c r="K118">
+        <v>72450</v>
+      </c>
+      <c r="M118" t="s">
+        <v>881</v>
+      </c>
+      <c r="N118" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O118">
+        <v>209625</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>881</v>
+      </c>
+      <c r="R118">
+        <v>13473</v>
+      </c>
+      <c r="S118">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="16">
+        <v>25</v>
+      </c>
+      <c r="B119" s="102">
+        <v>910</v>
+      </c>
+      <c r="C119" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D119" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E119" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F119" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G119" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I119" s="28" t="s">
+        <v>882</v>
+      </c>
+      <c r="J119" s="28">
+        <v>910</v>
+      </c>
+      <c r="K119">
+        <v>113505</v>
+      </c>
+      <c r="M119" t="s">
+        <v>882</v>
+      </c>
+      <c r="N119" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O119">
+        <v>209625</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>882</v>
+      </c>
+      <c r="R119">
+        <v>13473</v>
+      </c>
+      <c r="S119">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="16">
+        <v>26</v>
+      </c>
+      <c r="B120" s="102">
+        <v>910</v>
+      </c>
+      <c r="C120" s="102">
+        <v>77280</v>
+      </c>
+      <c r="D120" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E120" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F120" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G120" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I120" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="J120" s="28">
+        <v>910</v>
+      </c>
+      <c r="K120">
+        <v>77280</v>
+      </c>
+      <c r="M120" t="s">
+        <v>883</v>
+      </c>
+      <c r="N120" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O120">
+        <v>209625</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>883</v>
+      </c>
+      <c r="R120">
+        <v>13473</v>
+      </c>
+      <c r="S120">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" s="16">
+        <v>27</v>
+      </c>
+      <c r="B121" s="102">
+        <v>910</v>
+      </c>
+      <c r="C121" s="102">
+        <v>103845</v>
+      </c>
+      <c r="D121" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E121" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F121" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G121" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I121" s="28" t="s">
+        <v>884</v>
+      </c>
+      <c r="J121" s="28">
+        <v>910</v>
+      </c>
+      <c r="K121">
+        <v>103845</v>
+      </c>
+      <c r="M121" t="s">
+        <v>884</v>
+      </c>
+      <c r="N121" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O121">
+        <v>209625</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>884</v>
+      </c>
+      <c r="R121">
+        <v>13473</v>
+      </c>
+      <c r="S121">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" s="16">
+        <v>28</v>
+      </c>
+      <c r="B122" s="102">
+        <v>910</v>
+      </c>
+      <c r="C122" s="102">
+        <v>111090</v>
+      </c>
+      <c r="D122" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E122" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F122" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G122" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I122" s="28" t="s">
+        <v>885</v>
+      </c>
+      <c r="J122" s="28">
+        <v>910</v>
+      </c>
+      <c r="K122">
+        <v>111090</v>
+      </c>
+      <c r="M122" t="s">
+        <v>885</v>
+      </c>
+      <c r="N122" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O122">
+        <v>209625</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>885</v>
+      </c>
+      <c r="R122">
+        <v>13473</v>
+      </c>
+      <c r="S122">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="16">
+        <v>29</v>
+      </c>
+      <c r="B123" s="102">
+        <v>910</v>
+      </c>
+      <c r="C123" s="102">
+        <v>103845</v>
+      </c>
+      <c r="D123" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E123" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F123" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G123" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I123" s="28" t="s">
+        <v>886</v>
+      </c>
+      <c r="J123" s="28">
+        <v>910</v>
+      </c>
+      <c r="K123">
+        <v>103845</v>
+      </c>
+      <c r="M123" t="s">
+        <v>886</v>
+      </c>
+      <c r="N123" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O123">
+        <v>209625</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>886</v>
+      </c>
+      <c r="R123">
+        <v>13473</v>
+      </c>
+      <c r="S123">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" s="16">
+        <v>30</v>
+      </c>
+      <c r="B124" s="102">
+        <v>910</v>
+      </c>
+      <c r="C124" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D124" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E124" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F124" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G124" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I124" s="28" t="s">
+        <v>887</v>
+      </c>
+      <c r="J124" s="28">
+        <v>910</v>
+      </c>
+      <c r="K124">
+        <v>113505</v>
+      </c>
+      <c r="M124" t="s">
+        <v>887</v>
+      </c>
+      <c r="N124" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O124">
+        <v>209625</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>887</v>
+      </c>
+      <c r="R124">
+        <v>13473</v>
+      </c>
+      <c r="S124">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="16">
+        <v>31</v>
+      </c>
+      <c r="B125" s="102">
+        <v>910</v>
+      </c>
+      <c r="C125" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D125" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E125" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F125" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G125" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I125" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="J125" s="28">
+        <v>910</v>
+      </c>
+      <c r="K125">
+        <v>113505</v>
+      </c>
+      <c r="M125" t="s">
+        <v>888</v>
+      </c>
+      <c r="N125" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O125">
+        <v>209625</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>888</v>
+      </c>
+      <c r="R125">
+        <v>13473</v>
+      </c>
+      <c r="S125">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="16">
+        <v>32</v>
+      </c>
+      <c r="B126" s="102">
+        <v>910</v>
+      </c>
+      <c r="C126" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D126" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E126" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F126" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G126" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I126" s="28" t="s">
+        <v>889</v>
+      </c>
+      <c r="J126" s="28">
+        <v>910</v>
+      </c>
+      <c r="K126">
+        <v>113505</v>
+      </c>
+      <c r="M126" t="s">
+        <v>889</v>
+      </c>
+      <c r="N126" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O126">
+        <v>209625</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>889</v>
+      </c>
+      <c r="R126">
+        <v>13473</v>
+      </c>
+      <c r="S126">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="16">
+        <v>33</v>
+      </c>
+      <c r="B127" s="102">
+        <v>910</v>
+      </c>
+      <c r="C127" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D127" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E127" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F127" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G127" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I127" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="J127" s="28">
+        <v>910</v>
+      </c>
+      <c r="K127">
+        <v>113505</v>
+      </c>
+      <c r="M127" t="s">
+        <v>890</v>
+      </c>
+      <c r="N127" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O127">
+        <v>209625</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>890</v>
+      </c>
+      <c r="R127">
+        <v>13473</v>
+      </c>
+      <c r="S127">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" s="16">
+        <v>34</v>
+      </c>
+      <c r="B128" s="102">
+        <v>910</v>
+      </c>
+      <c r="C128" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D128" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E128" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F128" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G128" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I128" s="28" t="s">
+        <v>891</v>
+      </c>
+      <c r="J128" s="28">
+        <v>910</v>
+      </c>
+      <c r="K128">
+        <v>113505</v>
+      </c>
+      <c r="M128" t="s">
+        <v>891</v>
+      </c>
+      <c r="N128" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O128">
+        <v>209625</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>891</v>
+      </c>
+      <c r="R128">
+        <v>13473</v>
+      </c>
+      <c r="S128">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="16">
+        <v>35</v>
+      </c>
+      <c r="B129" s="102">
+        <v>910</v>
+      </c>
+      <c r="C129" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D129" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E129" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F129" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G129" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I129" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="J129" s="28">
+        <v>910</v>
+      </c>
+      <c r="K129">
+        <v>113505</v>
+      </c>
+      <c r="M129" t="s">
+        <v>892</v>
+      </c>
+      <c r="N129" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O129">
+        <v>209625</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>892</v>
+      </c>
+      <c r="R129">
+        <v>13473</v>
+      </c>
+      <c r="S129">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="16">
+        <v>36</v>
+      </c>
+      <c r="B130" s="102">
+        <v>910</v>
+      </c>
+      <c r="C130" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D130" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E130" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F130" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G130" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I130" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="J130" s="28">
+        <v>910</v>
+      </c>
+      <c r="K130">
+        <v>113505</v>
+      </c>
+      <c r="M130" t="s">
+        <v>893</v>
+      </c>
+      <c r="N130" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O130">
+        <v>209625</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>893</v>
+      </c>
+      <c r="R130">
+        <v>13473</v>
+      </c>
+      <c r="S130">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="16">
+        <v>37</v>
+      </c>
+      <c r="B131" s="102">
+        <v>910</v>
+      </c>
+      <c r="C131" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D131" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E131" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F131" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G131" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I131" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="J131" s="28">
+        <v>910</v>
+      </c>
+      <c r="K131">
+        <v>113505</v>
+      </c>
+      <c r="M131" t="s">
+        <v>894</v>
+      </c>
+      <c r="N131" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O131">
+        <v>209625</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>894</v>
+      </c>
+      <c r="R131">
+        <v>13473</v>
+      </c>
+      <c r="S131">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="16">
+        <v>38</v>
+      </c>
+      <c r="B132" s="102">
+        <v>910</v>
+      </c>
+      <c r="C132" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D132" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E132" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F132" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G132" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I132" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="J132" s="28">
+        <v>910</v>
+      </c>
+      <c r="K132">
+        <v>113505</v>
+      </c>
+      <c r="M132" t="s">
+        <v>895</v>
+      </c>
+      <c r="N132" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O132">
+        <v>209625</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>895</v>
+      </c>
+      <c r="R132">
+        <v>13473</v>
+      </c>
+      <c r="S132">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="16">
+        <v>39</v>
+      </c>
+      <c r="B133" s="102">
+        <v>910</v>
+      </c>
+      <c r="C133" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D133" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E133" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F133" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G133" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I133" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="J133" s="28">
+        <v>910</v>
+      </c>
+      <c r="K133">
+        <v>113505</v>
+      </c>
+      <c r="M133" t="s">
+        <v>896</v>
+      </c>
+      <c r="N133" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O133">
+        <v>209625</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>896</v>
+      </c>
+      <c r="R133">
+        <v>13473</v>
+      </c>
+      <c r="S133">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="16">
+        <v>40</v>
+      </c>
+      <c r="B134" s="102">
+        <v>910</v>
+      </c>
+      <c r="C134" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D134" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E134" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F134" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G134" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I134" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="J134" s="28">
+        <v>910</v>
+      </c>
+      <c r="K134">
+        <v>113505</v>
+      </c>
+      <c r="M134" t="s">
+        <v>897</v>
+      </c>
+      <c r="N134" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O134">
+        <v>209625</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>897</v>
+      </c>
+      <c r="R134">
+        <v>13473</v>
+      </c>
+      <c r="S134">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="16">
+        <v>41</v>
+      </c>
+      <c r="B135" s="102">
+        <v>910</v>
+      </c>
+      <c r="C135" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D135" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E135" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F135" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G135" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I135" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="J135" s="28">
+        <v>910</v>
+      </c>
+      <c r="K135">
+        <v>113505</v>
+      </c>
+      <c r="M135" t="s">
+        <v>898</v>
+      </c>
+      <c r="N135" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O135">
+        <v>209625</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>898</v>
+      </c>
+      <c r="R135">
+        <v>13473</v>
+      </c>
+      <c r="S135">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" s="16">
+        <v>42</v>
+      </c>
+      <c r="B136" s="102">
+        <v>910</v>
+      </c>
+      <c r="C136" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D136" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E136" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F136" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G136" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I136" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="J136" s="28">
+        <v>910</v>
+      </c>
+      <c r="K136">
+        <v>113505</v>
+      </c>
+      <c r="M136" t="s">
+        <v>899</v>
+      </c>
+      <c r="N136" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O136">
+        <v>209625</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>899</v>
+      </c>
+      <c r="R136">
+        <v>13473</v>
+      </c>
+      <c r="S136">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" s="16">
+        <v>43</v>
+      </c>
+      <c r="B137" s="102">
+        <v>910</v>
+      </c>
+      <c r="C137" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D137" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E137" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F137" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G137" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I137" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="J137" s="28">
+        <v>910</v>
+      </c>
+      <c r="K137">
+        <v>113505</v>
+      </c>
+      <c r="M137" t="s">
+        <v>900</v>
+      </c>
+      <c r="N137" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O137">
+        <v>209625</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>900</v>
+      </c>
+      <c r="R137">
+        <v>13473</v>
+      </c>
+      <c r="S137">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" s="16">
+        <v>44</v>
+      </c>
+      <c r="B138" s="102">
+        <v>910</v>
+      </c>
+      <c r="C138" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D138" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E138" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F138" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G138" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I138" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="J138" s="28">
+        <v>910</v>
+      </c>
+      <c r="K138">
+        <v>113505</v>
+      </c>
+      <c r="M138" t="s">
+        <v>901</v>
+      </c>
+      <c r="N138" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O138">
+        <v>209625</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>901</v>
+      </c>
+      <c r="R138">
+        <v>13473</v>
+      </c>
+      <c r="S138">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" s="16">
+        <v>45</v>
+      </c>
+      <c r="B139" s="102">
+        <v>910</v>
+      </c>
+      <c r="C139" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D139" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E139" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F139" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G139" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I139" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="J139" s="28">
+        <v>910</v>
+      </c>
+      <c r="K139">
+        <v>113505</v>
+      </c>
+      <c r="M139" t="s">
+        <v>902</v>
+      </c>
+      <c r="N139" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O139">
+        <v>209625</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>902</v>
+      </c>
+      <c r="R139">
+        <v>13473</v>
+      </c>
+      <c r="S139">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="A140" s="16">
+        <v>46</v>
+      </c>
+      <c r="B140" s="102">
+        <v>910</v>
+      </c>
+      <c r="C140" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D140" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E140" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F140" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G140" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I140" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="J140" s="28">
+        <v>910</v>
+      </c>
+      <c r="K140">
+        <v>113505</v>
+      </c>
+      <c r="M140" t="s">
+        <v>903</v>
+      </c>
+      <c r="N140" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O140">
+        <v>209625</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>903</v>
+      </c>
+      <c r="R140">
+        <v>13473</v>
+      </c>
+      <c r="S140">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" s="16">
+        <v>47</v>
+      </c>
+      <c r="B141" s="102">
+        <v>910</v>
+      </c>
+      <c r="C141" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D141" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E141" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F141" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G141" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I141" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="J141" s="28">
+        <v>910</v>
+      </c>
+      <c r="K141">
+        <v>113505</v>
+      </c>
+      <c r="M141" t="s">
+        <v>904</v>
+      </c>
+      <c r="N141" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O141">
+        <v>209625</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>904</v>
+      </c>
+      <c r="R141">
+        <v>13473</v>
+      </c>
+      <c r="S141">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" s="16">
+        <v>48</v>
+      </c>
+      <c r="B142" s="102">
+        <v>910</v>
+      </c>
+      <c r="C142" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D142" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E142" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F142" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G142" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I142" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="J142" s="28">
+        <v>910</v>
+      </c>
+      <c r="K142">
+        <v>113505</v>
+      </c>
+      <c r="M142" t="s">
+        <v>905</v>
+      </c>
+      <c r="N142" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O142">
+        <v>209625</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>905</v>
+      </c>
+      <c r="R142">
+        <v>13473</v>
+      </c>
+      <c r="S142">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="16">
+        <v>49</v>
+      </c>
+      <c r="B143" s="102">
+        <v>910</v>
+      </c>
+      <c r="C143" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D143" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E143" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F143" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G143" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I143" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="J143" s="28">
+        <v>910</v>
+      </c>
+      <c r="K143">
+        <v>113505</v>
+      </c>
+      <c r="M143" t="s">
+        <v>906</v>
+      </c>
+      <c r="N143" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O143">
+        <v>209625</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>906</v>
+      </c>
+      <c r="R143">
+        <v>13473</v>
+      </c>
+      <c r="S143">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" s="16">
+        <v>50</v>
+      </c>
+      <c r="B144" s="102">
+        <v>910</v>
+      </c>
+      <c r="C144" s="102">
+        <v>113505</v>
+      </c>
+      <c r="D144" s="112">
+        <v>11162</v>
+      </c>
+      <c r="E144" s="112">
+        <v>209625</v>
+      </c>
+      <c r="F144" s="107">
+        <v>13473</v>
+      </c>
+      <c r="G144" s="107">
+        <v>468720</v>
+      </c>
+      <c r="I144" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="J144" s="28">
+        <v>910</v>
+      </c>
+      <c r="K144">
+        <v>113505</v>
+      </c>
+      <c r="M144" t="s">
+        <v>907</v>
+      </c>
+      <c r="N144" s="28">
+        <v>11162</v>
+      </c>
+      <c r="O144">
+        <v>209625</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>907</v>
+      </c>
+      <c r="R144">
+        <v>13473</v>
+      </c>
+      <c r="S144">
+        <v>468720</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
+      <c r="A145" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="B145" s="102">
+        <f>MIN(B95:B144)</f>
+        <v>910</v>
+      </c>
+      <c r="C145" s="102">
+        <f>SUM(C95:C144)+1</f>
+        <v>4076521</v>
+      </c>
+      <c r="D145" s="112">
+        <f>MIN(D95:D144)</f>
+        <v>11162</v>
+      </c>
+      <c r="E145" s="112">
+        <f>SUM(E95:E144)+1</f>
+        <v>10481251</v>
+      </c>
+      <c r="F145" s="107">
+        <f>MIN(F95:F144)</f>
+        <v>13473</v>
+      </c>
+      <c r="G145" s="107">
+        <f>SUM(G95:G144)</f>
+        <v>23436000</v>
+      </c>
+      <c r="I145" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="J145">
+        <v>910</v>
+      </c>
+      <c r="L145" s="28"/>
+      <c r="M145" t="s">
+        <v>664</v>
+      </c>
+      <c r="N145">
+        <v>11162</v>
+      </c>
+      <c r="O145" s="28"/>
+      <c r="Q145" t="s">
+        <v>664</v>
+      </c>
+      <c r="R145">
+        <v>13473</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
+      <c r="I146" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="J146" s="28">
+        <v>4076521</v>
+      </c>
+      <c r="M146" t="s">
+        <v>665</v>
+      </c>
+      <c r="N146">
+        <v>10481251</v>
+      </c>
+      <c r="O146" s="28"/>
+      <c r="Q146" t="s">
+        <v>665</v>
+      </c>
+      <c r="R146">
+        <v>23436001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
+      <c r="I147" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="J147">
+        <v>8729200</v>
+      </c>
+      <c r="L147" s="28"/>
+      <c r="M147" t="s">
+        <v>666</v>
+      </c>
+      <c r="N147" s="28">
+        <v>8729200</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>666</v>
+      </c>
+      <c r="R147">
+        <v>8729200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
+      <c r="I148" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="J148" s="41">
+        <v>5137999</v>
+      </c>
+      <c r="L148" s="28"/>
+      <c r="M148" t="s">
+        <v>908</v>
+      </c>
+      <c r="O148" s="28"/>
+      <c r="Q148" t="s">
+        <v>909</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDC2CBE-C832-4C27-AE55-6A07B76907B7}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -9487,7 +18172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D730D598-30A1-4DC6-B3F7-7B9A7C088988}">
   <dimension ref="A1:M95"/>
   <sheetViews>
@@ -10981,12 +19666,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C429CC-C812-4F8C-8EA4-EC16AECA674E}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12078,12 +20763,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D2118-5D27-45B0-A2FB-C114FCC5EAEA}">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:O56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13779,7 +22464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F55487B-4492-4324-AD65-3A5DA661CCFB}">
   <dimension ref="A1:M144"/>
   <sheetViews>
@@ -15697,7 +24382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C6822D-B51D-40C1-94BE-2EDC287E1E28}">
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -17359,12 +26044,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5908B7D3-EAF4-41E2-809C-6F5EF5DA7BEE}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection sqref="A1:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
